--- a/zjh/regulation_news.xlsx
+++ b/zjh/regulation_news.xlsx
@@ -76,393 +76,396 @@
     <t>证券业协会动态</t>
   </si>
   <si>
-    <t>北京证券交易所正式揭牌开市</t>
+    <t>证监会举行党的十九届六中全会精神宣讲会</t>
+  </si>
+  <si>
+    <t>中国证监会相关部门负责人就美国监管机构有关动向答记者问</t>
+  </si>
+  <si>
+    <t>证监会就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见</t>
+  </si>
+  <si>
+    <t>联席会议部署开展金交所现场检查工作</t>
   </si>
   <si>
     <t>中国证监会党委传达学习贯彻中央经济工作会议精神</t>
   </si>
   <si>
-    <t>国务院公布《国务院关于进一步贯彻实施〈中华人民共和国行政处罚法〉的通知》</t>
-  </si>
-  <si>
-    <t>证监会组织开展“读懂上市公司报告”投资者教育专项活动</t>
+    <t>【第192号令】《证券交易所管理办法》</t>
+  </si>
+  <si>
+    <t>【第191号令】《关于修改〈非上市公众公司信息披露管理办法〉的决定》</t>
+  </si>
+  <si>
+    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
+  </si>
+  <si>
+    <t>【第189号令】《北京证券交易所上市公司持续监管办法（试行）》</t>
+  </si>
+  <si>
+    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
+  </si>
+  <si>
+    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
+  </si>
+  <si>
+    <t>【第46号公告】《关于赵瀛等12名同志不再担任第十八届发审委委员的公告》</t>
+  </si>
+  <si>
+    <t>【第45号公告】《关于聘任中国证券监督管理委员会第十八届发行审核委员会增补委员的公告》</t>
+  </si>
+  <si>
+    <t>【第44号公告】《公开征集上市公司股东权利管理暂行规定》</t>
+  </si>
+  <si>
+    <t>【第43号公告】关于调整上市公司并购重组审核委员会委员的公告</t>
+  </si>
+  <si>
+    <t>【第42号公告】关于修改《中国证券监督管理委员会上市公司并购重组审核委员会工作规程》的决定</t>
+  </si>
+  <si>
+    <t>【第41号公告】</t>
+  </si>
+  <si>
+    <t>审核情况公示（截至2021年12月17日）</t>
+  </si>
+  <si>
+    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】科创板提交再融资注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】发行监管部首次公开发行股票审核工作流程及申请企业情况</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第141次工作会议公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第137次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第139次工作会议公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第138次工作会议公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第137次工作会议公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第134次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>【行政许可事项】证券、基金经营机构行政许可申请受理及审核情况公示</t>
+  </si>
+  <si>
+    <t>关于同意宁波天益医疗器械股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>关于同意奕东电子科技股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>关于同意采纳科技股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>关于同意广东希荻微电子股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>关于同意山东天岳先进科技股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>厦门证监局证券期货经营机构行政许可事项审核过程公示表2021-12-17</t>
+  </si>
+  <si>
+    <t>重庆证监局赴垫江县开展乡村振兴调研</t>
+  </si>
+  <si>
+    <t>辖区证券期货纠纷诉调对接机制建成并落地运行</t>
+  </si>
+  <si>
+    <t>宁夏证监局开展新冠肺炎聚集性疫情处置视频培训</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（王荣民、蒯清庭）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（邵伟宇）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（张伟志）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（杨金柱）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（门赫）</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（潘日忠）</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（耿志民）</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（潘毅）</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（潘红建)</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（洪文宁）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国证监会处罚决定书（陈礼豪、许振华） </t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（杨锡刚、张友富）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（周建明、 陆仁芳）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（刘绍喜等5名责任人员）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（冯鑫）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（王秀生）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（廖良茂、曾祥洋）</t>
+  </si>
+  <si>
+    <t>关于对万和证券股份有限公司采取责令改正措施的决定</t>
+  </si>
+  <si>
+    <t>关于对长沙华六里资产管理有限公司采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对王超采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对金洲慈航集团股份有限公司采取出具警示函措施的决定(监管措施〔2021〕031号)</t>
+  </si>
+  <si>
+    <t>关于对朱要文采取出具警示函措施的决定(监管措施〔2021〕30号)</t>
+  </si>
+  <si>
+    <t>关于对美盛文化创意股份有限公司及相关人员采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>证监会新闻发言人答记者问</t>
+  </si>
+  <si>
+    <t>证监会有关负责人就恒大集团风险事件答记者问</t>
+  </si>
+  <si>
+    <t>证监会有关部门负责人就相关媒体报道答记者问</t>
+  </si>
+  <si>
+    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
+  </si>
+  <si>
+    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
+  </si>
+  <si>
+    <t>证监会发布《证券期货业数据模型 第3部分：证券公司逻辑模型》等2项金融行业标准</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——机构类第1号（2021年11月修订）</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——发行类第2号</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——审计类第1号</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——关于申请首发上市企业股东信息披露</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——非上市公众公司类第1号</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——评估类第1号</t>
+  </si>
+  <si>
+    <t>首发企业信息披露质量抽查抽签情况（2021年10月15日）</t>
+  </si>
+  <si>
+    <t>2020年度证券审计市场分析报告</t>
+  </si>
+  <si>
+    <t>首发企业信息披露质量抽查抽签情况（2021年7月4日）</t>
+  </si>
+  <si>
+    <t>关于提供证监会系统离职人员信息查询比对服务的通知</t>
+  </si>
+  <si>
+    <t>关于恢复发审会现场聆讯工作安排的通知</t>
+  </si>
+  <si>
+    <t>首发企业信息披露质量抽查抽签情况（2021年4月25日）</t>
+  </si>
+  <si>
+    <t>关于发行审核业务问答部分条款调整事项的通知</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于上市公司非公开发行股票引入战略投资者有关事项的监管要求</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于引导规范上市公司融资行为的监管要求（修订版）</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于申请首发企业执行新收入准则相关事项的问答</t>
+  </si>
+  <si>
+    <t>关于发布《再融资业务若干问题解答》的通知</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于发行规模达到一定数量实行联合保荐的相关标准</t>
+  </si>
+  <si>
+    <t>关于就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>中国证监会关于就修改《内地与香港股票市场交易互联互通机制若干规定》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就《证券期货行政执法当事人承诺制度实施规定（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就上市公司监管法规体系整合涉及相关规则公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就《保荐人尽职调查工作准则》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就《中国证监会关于北京证券交易所上市公司转板的指导意见》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>《证券期货违法行为行政处罚办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《关于完善全国中小企业股份转让系统终止挂牌制度的指导意见》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《关于修改&lt;证券公司股权管理规定&gt;的决定》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《上市公司信息披露管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《证券市场资信评级业务管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>中央第二巡视组巡视上海证券交易所党委工作动员会召开</t>
+  </si>
+  <si>
+    <t>坚持稳中求进，全心全意服务高质量发展——上海证券交易所党委学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
+  </si>
+  <si>
+    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
+  </si>
+  <si>
+    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
+  </si>
+  <si>
+    <t>中国证监会原发审委委员、上海证券交易所原科创板上市审核中心副主任操舰严重违纪违法被开除党籍和公职</t>
+  </si>
+  <si>
+    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
+  </si>
+  <si>
+    <t>上交所就发布营业收入扣除指南答记者问</t>
+  </si>
+  <si>
+    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
+  </si>
+  <si>
+    <t>上交所核心交易系统搬迁顺利完成“双活互备”基础设施总体布局不断完善</t>
+  </si>
+  <si>
+    <t>稳中提质态势不改，沪市主板公司完成2021年三季度报告披露</t>
+  </si>
+  <si>
+    <t>资本市场高质量发展集群初步显现——科创板公司2021年前三季度经营业绩概况</t>
+  </si>
+  <si>
+    <t>中国证监会党委与中央纪委国家监委驻证监会纪检监察组召开警示教育大会</t>
+  </si>
+  <si>
+    <t>不断推进资本市场对外开放 服务经济高质量发展——中国证监会副主席方星海在2021年上交所国际投资者大会上的致辞（视频）</t>
+  </si>
+  <si>
+    <t>推进高水平对外开放 服务构建新发展格局——2021年上海证券交易所国际投资者大会开幕</t>
+  </si>
+  <si>
+    <t>中央第三巡视组巡视深圳证券交易所党委工作动员会召开</t>
+  </si>
+  <si>
+    <t>风光股份在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
+  </si>
+  <si>
+    <t>明月镜片在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所党委认真学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>华研精机、迪阿股份在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所就修订股票上市规则公开征求意见</t>
+  </si>
+  <si>
+    <t>通灵股份在深交所上市</t>
+  </si>
+  <si>
+    <t>家联科技在深交所上市</t>
+  </si>
+  <si>
+    <t>泽宇智能在深交所上市</t>
+  </si>
+  <si>
+    <t>粤万年青、达嘉维康、迈赫股份在深交所上市</t>
   </si>
   <si>
     <t>陈华平任深圳证券交易所党委书记</t>
   </si>
   <si>
-    <t>证监会新闻发言人答记者问</t>
-  </si>
-  <si>
-    <t>【第192号令】《证券交易所管理办法》</t>
-  </si>
-  <si>
-    <t>【第191号令】《关于修改〈非上市公众公司信息披露管理办法〉的决定》</t>
-  </si>
-  <si>
-    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
-  </si>
-  <si>
-    <t>【第189号令】《北京证券交易所上市公司持续监管办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第46号公告】《关于赵瀛等12名同志不再担任第十八届发审委委员的公告》</t>
-  </si>
-  <si>
-    <t>【第45号公告】《关于聘任中国证券监督管理委员会第十八届发行审核委员会增补委员的公告》</t>
-  </si>
-  <si>
-    <t>【第44号公告】《公开征集上市公司股东权利管理暂行规定》</t>
-  </si>
-  <si>
-    <t>【第43号公告】关于调整上市公司并购重组审核委员会委员的公告</t>
-  </si>
-  <si>
-    <t>【第42号公告】关于修改《中国证券监督管理委员会上市公司并购重组审核委员会工作规程》的决定</t>
-  </si>
-  <si>
-    <t>【第41号公告】</t>
-  </si>
-  <si>
-    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】上市公司并购重组行政许可审核情况公示</t>
-  </si>
-  <si>
-    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】科创板提交再融资注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】发行监管部首次公开发行股票审核工作流程及申请企业情况</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第137次会议审核结果公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第139次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第138次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第137次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第134次会议审核结果公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第135次工作会议公告</t>
-  </si>
-  <si>
-    <t>关于同意宁波天益医疗器械股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意奕东电子科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意采纳科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意广东希荻微电子股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意山东天岳先进科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意翱捷科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>宁夏证监局开展新冠肺炎聚集性疫情处置视频培训</t>
-  </si>
-  <si>
-    <t>湖南局党委深入学习十九届六中全会精神</t>
-  </si>
-  <si>
-    <t>证券机构行政许可申请受理及审核情况公示（截止2021年12月10日）</t>
-  </si>
-  <si>
-    <t>辽宁辖区已注销私募基金管理人登记机构名单公示</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（王荣民、蒯清庭）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（邵伟宇）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（张伟志）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（杨金柱）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（门赫）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘日忠）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（耿志民）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘毅）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘红建)</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（洪文宁）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国证监会处罚决定书（陈礼豪、许振华） </t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（杨锡刚、张友富）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（周建明、 陆仁芳）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（刘绍喜等5名责任人员）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（冯鑫）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（王秀生）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（廖良茂、曾祥洋）</t>
-  </si>
-  <si>
-    <t>关于对美盛文化创意股份有限公司及相关人员采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对广州市凯隆置业有限公司采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对美盛控股集团有限公司、赵小强采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对嘉兴邦成投资管理有限公司采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对谢忠顺采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对浙江厚兴股权投资基金管理有限公司采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>证监会有关负责人就恒大集团风险事件答记者问</t>
-  </si>
-  <si>
-    <t>证监会有关部门负责人就相关媒体报道答记者问</t>
-  </si>
-  <si>
-    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
-  </si>
-  <si>
-    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
-  </si>
-  <si>
-    <t>证监会发布《证券期货业数据模型 第3部分：证券公司逻辑模型》等2项金融行业标准</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——机构类第1号（2021年11月修订）</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——发行类第2号</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——审计类第1号</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——关于申请首发上市企业股东信息披露</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——非上市公众公司类第1号</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——评估类第1号</t>
-  </si>
-  <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年10月15日）</t>
-  </si>
-  <si>
-    <t>2020年度证券审计市场分析报告</t>
-  </si>
-  <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年7月4日）</t>
-  </si>
-  <si>
-    <t>关于提供证监会系统离职人员信息查询比对服务的通知</t>
-  </si>
-  <si>
-    <t>关于恢复发审会现场聆讯工作安排的通知</t>
-  </si>
-  <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年4月25日）</t>
-  </si>
-  <si>
-    <t>关于发行审核业务问答部分条款调整事项的通知</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于上市公司非公开发行股票引入战略投资者有关事项的监管要求</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于引导规范上市公司融资行为的监管要求（修订版）</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于申请首发企业执行新收入准则相关事项的问答</t>
-  </si>
-  <si>
-    <t>关于发布《再融资业务若干问题解答》的通知</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于发行规模达到一定数量实行联合保荐的相关标准</t>
-  </si>
-  <si>
-    <t>关于就《证券期货行政执法当事人承诺制度实施规定（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就上市公司监管法规体系整合涉及相关规则公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《保荐人尽职调查工作准则》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《中国证监会关于北京证券交易所上市公司转板的指导意见》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《关于注册制下提高招股说明书信息披露质量的指导意见（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《关于加强注册制下中介机构投资银行业务廉洁从业监管的意见（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>《证券期货违法行为行政处罚办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《关于完善全国中小企业股份转让系统终止挂牌制度的指导意见》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《关于修改&lt;证券公司股权管理规定&gt;的决定》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《上市公司信息披露管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《证券市场资信评级业务管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>中央第二巡视组巡视上海证券交易所党委工作动员会召开</t>
-  </si>
-  <si>
-    <t>坚持稳中求进，全心全意服务高质量发展——上海证券交易所党委学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
-  </si>
-  <si>
-    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
-  </si>
-  <si>
-    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
-  </si>
-  <si>
-    <t>中国证监会原发审委委员、上海证券交易所原科创板上市审核中心副主任操舰严重违纪违法被开除党籍和公职</t>
-  </si>
-  <si>
-    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
-  </si>
-  <si>
-    <t>上交所就发布营业收入扣除指南答记者问</t>
-  </si>
-  <si>
-    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
-  </si>
-  <si>
-    <t>上交所核心交易系统搬迁顺利完成“双活互备”基础设施总体布局不断完善</t>
-  </si>
-  <si>
-    <t>稳中提质态势不改，沪市主板公司完成2021年三季度报告披露</t>
-  </si>
-  <si>
-    <t>资本市场高质量发展集群初步显现——科创板公司2021年前三季度经营业绩概况</t>
-  </si>
-  <si>
-    <t>中国证监会党委与中央纪委国家监委驻证监会纪检监察组召开警示教育大会</t>
-  </si>
-  <si>
-    <t>不断推进资本市场对外开放 服务经济高质量发展——中国证监会副主席方星海在2021年上交所国际投资者大会上的致辞（视频）</t>
-  </si>
-  <si>
-    <t>推进高水平对外开放 服务构建新发展格局——2021年上海证券交易所国际投资者大会开幕</t>
-  </si>
-  <si>
-    <t>中央第三巡视组巡视深圳证券交易所党委工作动员会召开</t>
-  </si>
-  <si>
-    <t>风光股份在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
-  </si>
-  <si>
-    <t>明月镜片在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所党委认真学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>华研精机、迪阿股份在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所就修订股票上市规则公开征求意见</t>
-  </si>
-  <si>
-    <t>通灵股份在深交所上市</t>
-  </si>
-  <si>
-    <t>家联科技在深交所上市</t>
-  </si>
-  <si>
-    <t>泽宇智能在深交所上市</t>
-  </si>
-  <si>
-    <t>粤万年青、达嘉维康、迈赫股份在深交所上市</t>
-  </si>
-  <si>
     <t>深交所开展“宪法宣传周”系列普法宣传活动</t>
   </si>
   <si>
@@ -481,9 +484,6 @@
     <t>三羊马在深交所上市</t>
   </si>
   <si>
-    <t>深证成指、创业板指、深证100等深市核心指数调整样本股</t>
-  </si>
-  <si>
     <t>坚持稳中求进，助力实体经济和资本市场高质量发展——中国金融期货交易所党委传达学习贯彻中央经济工作会议精神</t>
   </si>
   <si>
@@ -646,228 +646,228 @@
     <t>证券业协会开展证券公司发布证券研究报告业务经营情况统计</t>
   </si>
   <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-10-30</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
     <t>2021-11-15</t>
   </si>
   <si>
-    <t>2021-12-13</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2021-10-30</t>
-  </si>
-  <si>
-    <t>2021-11-19</t>
-  </si>
-  <si>
-    <t>2021-11-12</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
-    <t>2021-12-14</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>2021-06-23</t>
-  </si>
-  <si>
-    <t>2021-12-06</t>
-  </si>
-  <si>
-    <t>2021-11-22</t>
-  </si>
-  <si>
-    <t>2021-11-17</t>
-  </si>
-  <si>
-    <t>2021-11-11</t>
-  </si>
-  <si>
-    <t>2021-11-04</t>
-  </si>
-  <si>
-    <t>2021-10-27</t>
-  </si>
-  <si>
-    <t>2021-10-18</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>2021-07-28</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2021-11-29</t>
-  </si>
-  <si>
-    <t>2021-11-05</t>
-  </si>
-  <si>
-    <t>2021-11-26</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-10-15</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-07-04</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
-    <t>2021-04-25</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>2021-02-14</t>
-  </si>
-  <si>
-    <t>2021-01-16</t>
-  </si>
-  <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
-    <t>2021-04-23</t>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
   </si>
   <si>
     <t>2021-10-29</t>
   </si>
   <si>
-    <t>2021-09-24</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-10-10</t>
-  </si>
-  <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
-    <t>2021-10-28</t>
-  </si>
-  <si>
-    <t>2021-10-25</t>
-  </si>
-  <si>
-    <t>2021-10-12</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>2021-12-08</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2021-12-02</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2021-08-13</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>2021-11-25</t>
-  </si>
-  <si>
-    <t>2021-11-24</t>
-  </si>
-  <si>
-    <t>2021-11-18</t>
-  </si>
-  <si>
-    <t>2021-11-02</t>
-  </si>
-  <si>
-    <t>2021-09-16</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>2021-11-10</t>
-  </si>
-  <si>
     <t>2021-10-26</t>
   </si>
   <si>
@@ -889,198 +889,198 @@
     <t>2021-09-23</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1556042/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1656589/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1657004/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1656992/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1656428/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1617332/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1615676/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1615671/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1605899/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c101834/c1496641/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101831/c1496639/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496650/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1615684/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1615680/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101954/c1605915/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560176/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560180/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106251/c1569384/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105908/c1489525/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105892/c1004823/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1656567/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1653905/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1653690/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1653672/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1618154/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1653884/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106250/c1029662/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105917/c1653968/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105917/c1653900/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105917/c1653895/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105906/c1623342/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105906/c1623305/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/xiamen/c104096/c1656714/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/chongqing/c101075/c1654167/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/guangxi/c100999/c1654067/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/ningxia/c101455/c1653924/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496822/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496823/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c5a6dfd70b31c4683a8a0cd9efd4f3b34/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496825/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c558d1e43ee6041a89967165b08ab55f4/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1583540/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1603455/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608682/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608662/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608659/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560133/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560135/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560137/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1608417/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c24b0844aadf94ed8a9bcc5fa9db886fc/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c47ce4ca5681d4b57a72e7d3294e04044/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/hainan/c104738/c1656426/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/hunan/c104484/c1655931/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/qingdao/c104016/c1654075/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/heilongjiang/c103838/c1654073/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/heilongjiang/c103838/c1654070/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653827/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1605830/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101834/c1496641/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101831/c1496639/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496650/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1615684/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1615680/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101954/c1605915/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560176/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560180/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105935/c1004167/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105908/c1489525/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105892/c1004823/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105899/c1653905/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1653690/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1653672/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1618154/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105899/c1653884/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1618151/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653968/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653900/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653895/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105906/c1623342/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105906/c1623305/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105906/c1623085/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/ningxia/c101455/c1653924/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/hunan/c100923/c1653501/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/sichuan/c104894/c1653480/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/liaoning/c103742/c1653446/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496822/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496823/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c5a6dfd70b31c4683a8a0cd9efd4f3b34/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496825/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c558d1e43ee6041a89967165b08ab55f4/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1583540/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1603455/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608682/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608662/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608659/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560133/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560135/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560137/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1608417/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c24b0844aadf94ed8a9bcc5fa9db886fc/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c47ce4ca5681d4b57a72e7d3294e04044/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653827/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653816/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653797/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653787/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653776/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653766/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1605816/content.shtml</t>
   </si>
   <si>
@@ -1150,6 +1150,12 @@
     <t>http://www.csrc.gov.cn/csrc/c100107/c1447190/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1656997/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1656767/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101981/c1603638/content.shtml</t>
   </si>
   <si>
@@ -1168,12 +1174,6 @@
     <t>http://www.csrc.gov.cn/csrc/c101864/c1496649/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101802/c1496486/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101838/c1496642/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100114/c1494322/content.shtml</t>
   </si>
   <si>
@@ -1246,6 +1246,9 @@
     <t>http://www.szse.cn/aboutus/trends/news/t20211012_588773.html</t>
   </si>
   <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590300.html</t>
+  </si>
+  <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211217_590289.html</t>
   </si>
   <si>
@@ -1298,9 +1301,6 @@
   </si>
   <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211130_589940.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211129_589937.html</t>
   </si>
   <si>
     <t>http://www.cffex.com.cn//jysdt/20211215/26555.html</t>
@@ -1893,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>292</v>
@@ -1907,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>293</v>
@@ -1918,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>213</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2310,13 +2310,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2478,13 +2478,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2492,13 +2492,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2548,13 +2548,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2646,13 +2646,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2660,13 +2660,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2674,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2688,13 +2688,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2702,13 +2702,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2716,13 +2716,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2730,13 +2730,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2758,13 +2758,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2772,13 +2772,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2831,7 +2831,7 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>358</v>
@@ -3111,7 +3111,7 @@
         <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>378</v>
@@ -3125,7 +3125,7 @@
         <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>379</v>
@@ -3139,7 +3139,7 @@
         <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>380</v>
@@ -3153,7 +3153,7 @@
         <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>381</v>
@@ -3167,7 +3167,7 @@
         <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>382</v>
@@ -3181,7 +3181,7 @@
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>383</v>
@@ -3195,7 +3195,7 @@
         <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>384</v>
@@ -3209,7 +3209,7 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>385</v>
@@ -3223,7 +3223,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>386</v>
@@ -3237,7 +3237,7 @@
         <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>387</v>
@@ -3251,7 +3251,7 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>388</v>
@@ -3265,7 +3265,7 @@
         <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>389</v>
@@ -3279,7 +3279,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>390</v>
@@ -3293,7 +3293,7 @@
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>391</v>
@@ -3307,7 +3307,7 @@
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>392</v>
@@ -3321,7 +3321,7 @@
         <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>393</v>
@@ -3335,7 +3335,7 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>394</v>
@@ -3363,7 +3363,7 @@
         <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>396</v>
@@ -3377,7 +3377,7 @@
         <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>397</v>
@@ -3391,7 +3391,7 @@
         <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>398</v>
@@ -3433,7 +3433,7 @@
         <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>401</v>
@@ -3447,7 +3447,7 @@
         <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>402</v>
@@ -3461,7 +3461,7 @@
         <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>403</v>
@@ -3475,7 +3475,7 @@
         <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>404</v>
@@ -3489,7 +3489,7 @@
         <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>405</v>
@@ -3503,7 +3503,7 @@
         <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>406</v>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>407</v>
@@ -3531,7 +3531,7 @@
         <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>408</v>
@@ -3545,7 +3545,7 @@
         <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>409</v>
@@ -3556,10 +3556,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>410</v>
@@ -3570,10 +3570,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>411</v>
@@ -3584,10 +3584,10 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>412</v>
@@ -3598,10 +3598,10 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>413</v>
@@ -3612,10 +3612,10 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>414</v>
@@ -3626,10 +3626,10 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>415</v>
@@ -3640,10 +3640,10 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>416</v>
@@ -3654,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
         <v>213</v>
@@ -3668,10 +3668,10 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>418</v>
@@ -3682,10 +3682,10 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>419</v>
@@ -3696,10 +3696,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>420</v>
@@ -3710,10 +3710,10 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>421</v>
@@ -3727,7 +3727,7 @@
         <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>422</v>
@@ -3741,7 +3741,7 @@
         <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>423</v>
@@ -3755,7 +3755,7 @@
         <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>424</v>
@@ -3769,7 +3769,7 @@
         <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>425</v>
@@ -3783,7 +3783,7 @@
         <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>426</v>
@@ -3797,7 +3797,7 @@
         <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>427</v>
@@ -3811,7 +3811,7 @@
         <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>428</v>
@@ -3825,7 +3825,7 @@
         <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>429</v>
@@ -3839,7 +3839,7 @@
         <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>430</v>
@@ -3853,7 +3853,7 @@
         <v>158</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>431</v>
@@ -3867,7 +3867,7 @@
         <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>432</v>
@@ -3881,7 +3881,7 @@
         <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>433</v>
@@ -3895,7 +3895,7 @@
         <v>161</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>434</v>
@@ -3909,7 +3909,7 @@
         <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>435</v>
@@ -3923,7 +3923,7 @@
         <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>436</v>
@@ -3937,7 +3937,7 @@
         <v>164</v>
       </c>
       <c r="C149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>437</v>
@@ -3951,7 +3951,7 @@
         <v>165</v>
       </c>
       <c r="C150" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>438</v>
@@ -3965,7 +3965,7 @@
         <v>166</v>
       </c>
       <c r="C151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>439</v>
@@ -3979,7 +3979,7 @@
         <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>440</v>
@@ -3993,7 +3993,7 @@
         <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>441</v>
@@ -4007,7 +4007,7 @@
         <v>168</v>
       </c>
       <c r="C154" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>442</v>
@@ -4021,7 +4021,7 @@
         <v>169</v>
       </c>
       <c r="C155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>443</v>
@@ -4077,7 +4077,7 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>447</v>
@@ -4091,7 +4091,7 @@
         <v>166</v>
       </c>
       <c r="C160" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>448</v>
@@ -4105,7 +4105,7 @@
         <v>173</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>449</v>
@@ -4119,7 +4119,7 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>450</v>
@@ -4133,7 +4133,7 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>451</v>
@@ -4147,7 +4147,7 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>452</v>
@@ -4161,7 +4161,7 @@
         <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>453</v>
@@ -4175,7 +4175,7 @@
         <v>175</v>
       </c>
       <c r="C166" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>454</v>
@@ -4189,7 +4189,7 @@
         <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>455</v>
@@ -4203,7 +4203,7 @@
         <v>177</v>
       </c>
       <c r="C168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>456</v>
@@ -4217,7 +4217,7 @@
         <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>457</v>
@@ -4231,7 +4231,7 @@
         <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>458</v>
@@ -4245,7 +4245,7 @@
         <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>459</v>
@@ -4259,7 +4259,7 @@
         <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>460</v>
@@ -4273,7 +4273,7 @@
         <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>461</v>
@@ -4287,7 +4287,7 @@
         <v>183</v>
       </c>
       <c r="C174" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>462</v>
@@ -4301,7 +4301,7 @@
         <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>463</v>
@@ -4329,7 +4329,7 @@
         <v>186</v>
       </c>
       <c r="C177" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>465</v>
@@ -4343,7 +4343,7 @@
         <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>466</v>
@@ -4357,7 +4357,7 @@
         <v>188</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>467</v>
@@ -4371,7 +4371,7 @@
         <v>189</v>
       </c>
       <c r="C180" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>468</v>
@@ -4385,7 +4385,7 @@
         <v>190</v>
       </c>
       <c r="C181" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>469</v>
@@ -4399,7 +4399,7 @@
         <v>191</v>
       </c>
       <c r="C182" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>470</v>
@@ -4441,7 +4441,7 @@
         <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>473</v>
@@ -4455,7 +4455,7 @@
         <v>195</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>474</v>
@@ -4469,7 +4469,7 @@
         <v>196</v>
       </c>
       <c r="C187" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>475</v>
@@ -4483,7 +4483,7 @@
         <v>197</v>
       </c>
       <c r="C188" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>476</v>
@@ -4497,7 +4497,7 @@
         <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>477</v>
@@ -4511,7 +4511,7 @@
         <v>199</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>478</v>
@@ -4525,7 +4525,7 @@
         <v>200</v>
       </c>
       <c r="C191" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>479</v>

--- a/zjh/regulation_news.xlsx
+++ b/zjh/regulation_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="545">
   <si>
     <t>主体</t>
   </si>
@@ -28,169 +28,628 @@
     <t>链接</t>
   </si>
   <si>
+    <t>行政许可结果</t>
+  </si>
+  <si>
+    <t>行政许可进度</t>
+  </si>
+  <si>
+    <t>上期所动态</t>
+  </si>
+  <si>
+    <t>发审委公告</t>
+  </si>
+  <si>
+    <t>政务信息</t>
+  </si>
+  <si>
+    <t>辖区监管动态</t>
+  </si>
+  <si>
+    <t>中金所动态</t>
+  </si>
+  <si>
+    <t>郑商所动态</t>
+  </si>
+  <si>
     <t>证监会要闻</t>
   </si>
   <si>
+    <t>上交所动态</t>
+  </si>
+  <si>
+    <t>中国结算动态</t>
+  </si>
+  <si>
+    <t>征求意见</t>
+  </si>
+  <si>
+    <t>证监会公告</t>
+  </si>
+  <si>
+    <t>深交所动态</t>
+  </si>
+  <si>
+    <t>证券业协会动态</t>
+  </si>
+  <si>
+    <t>大商所动态</t>
+  </si>
+  <si>
+    <t>监管指引</t>
+  </si>
+  <si>
+    <t>基金业协会动态</t>
+  </si>
+  <si>
     <t>证监会令</t>
   </si>
   <si>
-    <t>证监会公告</t>
-  </si>
-  <si>
-    <t>行政许可进度</t>
-  </si>
-  <si>
-    <t>发审委公告</t>
-  </si>
-  <si>
-    <t>行政许可结果</t>
-  </si>
-  <si>
-    <t>辖区监管动态</t>
-  </si>
-  <si>
-    <t>政务信息</t>
-  </si>
-  <si>
-    <t>监管指引</t>
-  </si>
-  <si>
-    <t>征求意见</t>
-  </si>
-  <si>
-    <t>上交所动态</t>
-  </si>
-  <si>
-    <t>深交所动态</t>
-  </si>
-  <si>
-    <t>中金所动态</t>
-  </si>
-  <si>
-    <t>中国结算动态</t>
-  </si>
-  <si>
-    <t>基金业协会动态</t>
-  </si>
-  <si>
-    <t>证券业协会动态</t>
+    <t>关于核准哈尔滨均信融资担保股份有限公司定向发行股票的批复</t>
+  </si>
+  <si>
+    <t>关于核准广东芭薇生物科技股份有限公司定向发行股票的批复</t>
+  </si>
+  <si>
+    <t>关于核准内蒙古太仆寺农村商业银行股份有限公司定向发行股票的批复</t>
+  </si>
+  <si>
+    <t>【行政许可事项】证券、基金经营机构行政许可申请受理及审核情况公示</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>关于调整铜等品种交割手续费的通知</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第143次工作会议公告</t>
+  </si>
+  <si>
+    <t>中国证监会行政许可申请中止审查通知书（无锡灵山文化旅游集团有限公司）</t>
+  </si>
+  <si>
+    <t>关于对珠海久银股权投资基金管理有限公司采取责令改正措施的决定〔2021〕158号</t>
+  </si>
+  <si>
+    <t>关于对合慧伟业商贸（北京）有限公司采取出具警示函行政监管措施的决定</t>
+  </si>
+  <si>
+    <t>厦门证监局证券期货经营机构行政许可事项审核过程公示表2021-12-24</t>
+  </si>
+  <si>
+    <t>会计师事务所货币资金审计监管专题</t>
+  </si>
+  <si>
+    <t>安徽局建言献策服务实体经济推动政府引导基金高质量发展</t>
+  </si>
+  <si>
+    <t>安徽局做实做细北交所上市公司入门教育</t>
+  </si>
+  <si>
+    <t>关于对内蒙古天首科技发展股份有限公司、邱士杰、姜琴采取出具警示函行政监管措施的决定</t>
+  </si>
+  <si>
+    <t>中金所减收2022年股指期货和国债期货交割手续费</t>
+  </si>
+  <si>
+    <t>关于变更指定苹果期货质检机构的公告</t>
+  </si>
+  <si>
+    <t>关于2022年元旦期间夜盘交易时间提示的通知</t>
+  </si>
+  <si>
+    <t>关于同意江苏省镔鑫钢铁集团有限公司变更螺纹钢产品标牌的公告</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>上海国际能源交易中心发布关于调整原油等品种交割手续费的通知</t>
+  </si>
+  <si>
+    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】上市公司并购重组行政许可审核情况公示</t>
+  </si>
+  <si>
+    <t>证监会就境外上市相关制度规则公开征求意见</t>
+  </si>
+  <si>
+    <t>中国证监会和香港证监会举行第十二次两地执法合作工作会议</t>
+  </si>
+  <si>
+    <t>优化互联互通机制，服务资本市场制度型双向开放</t>
+  </si>
+  <si>
+    <t>沪深港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
+  </si>
+  <si>
+    <t>关于就《中国证券登记结算有限责任公司境内外证券交易所互联互通存托凭证登记结算业务实施细则（公开征求意见稿）》征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于发布《中国证券登记结算有限责任公司 上海证券交易所B转H业务实施细则》的通知</t>
+  </si>
+  <si>
+    <t>关于统一账户平台、身份信息核查系统暂停对外提供服务的通知</t>
+  </si>
+  <si>
+    <t>证监会有关负责人答记者问</t>
+  </si>
+  <si>
+    <t>关于就《国务院关于境内企业境外发行证券和上市的管理规定（草案征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就《境内企业境外发行证券和上市备案管理办法（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>【第47号公告】《公开发行证券的公司信息披露内容与格式准则第24号—公开发行公司债券申请文件（2021年修订）》</t>
+  </si>
+  <si>
+    <t>关于指定红枣质检机构变更的公告</t>
+  </si>
+  <si>
+    <t>深交所启动互联互通存托凭证业务并就深市配套业务规则公开征求意见</t>
+  </si>
+  <si>
+    <t>深沪港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
+  </si>
+  <si>
+    <t>长江材料、善水科技在深交所上市</t>
+  </si>
+  <si>
+    <t>审核情况公示（截至2021年12月24日）</t>
+  </si>
+  <si>
+    <t>关于免收套保开仓、交割、仓单转让及标准仓单作为保证金手续费的通知</t>
+  </si>
+  <si>
+    <t>关于对国泰君安证券股份有限公司西宁胜利路证券营业部采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对中国银河证券股份有限公司长春人民大街证券营业部采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对康欣采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>凯旺科技、超达装备在深交所上市</t>
+  </si>
+  <si>
+    <t>上海市委常委、浦东新区区委书记朱芝松一行调研中金所</t>
+  </si>
+  <si>
+    <t>陈华平任深圳证券交易所理事长</t>
+  </si>
+  <si>
+    <t>中国证券业协会召开2021年第四季度证券基金行业首席经济学家例会</t>
+  </si>
+  <si>
+    <t>上交所新债券交易系统上线 平稳实现交易系统“股债分离”</t>
+  </si>
+  <si>
+    <t>关于收取标准仓单作为保证金的手续费的通知</t>
+  </si>
+  <si>
+    <t>中国证券业协会发布《证券公司履行社会责任专项评价办法》</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第141次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>关于核准第一创业证券股份有限公司变更主要股东的批复</t>
+  </si>
+  <si>
+    <t>关于调整FU2210合约最后交易日和交割期的通知</t>
+  </si>
+  <si>
+    <t>雅艺科技、亨迪药业、光庭信息在深交所上市</t>
+  </si>
+  <si>
+    <t>违规处理决定公告</t>
+  </si>
+  <si>
+    <t>大商所对某客户采取限制开仓监管措施</t>
+  </si>
+  <si>
+    <t>2020年度会计师事务所从事证券服务业务基本信息</t>
+  </si>
+  <si>
+    <t>关于同意赣州腾远钴业新材料股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>上海国际能源交易中心发布关于调整期货SC2210等合约最后交易日和交割期、期权SC2210系列合约最后交易日的通知</t>
+  </si>
+  <si>
+    <t>关于公示第四届“郑商所杯”全国大学生金融模拟交易大赛拟获奖名单的公告</t>
+  </si>
+  <si>
+    <t>关于同意天铁热轧板有限公司“天铁”牌热轧卷板注册的公告</t>
+  </si>
+  <si>
+    <t>深交所与中国政法大学等共同签署投资者教育合作备忘录</t>
+  </si>
+  <si>
+    <t>关于2022年部分节假日休市期间证券资金清算交收安排的通知</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第139次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>大商所对某实控组客户采取限制开仓监管措施</t>
+  </si>
+  <si>
+    <t>证券行业文化建设委员会2021年全体会议召开</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第138次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>中国证券业协会举办首期注册制下投行执业能力提升培训班</t>
+  </si>
+  <si>
+    <t>百诚医药在深交所上市</t>
+  </si>
+  <si>
+    <t>证券行业投资者教育走入中国政法大学</t>
+  </si>
+  <si>
+    <t>关于就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>大商所2021年会员大会成功召开</t>
+  </si>
+  <si>
+    <t>中国证监会相关部门负责人就美国监管机构有关动向答记者问</t>
   </si>
   <si>
     <t>证监会举行党的十九届六中全会精神宣讲会</t>
   </si>
   <si>
-    <t>中国证监会相关部门负责人就美国监管机构有关动向答记者问</t>
+    <t>中国证监会关于就修改《内地与香港股票市场交易互联互通机制若干规定》公开征求意见的通知</t>
   </si>
   <si>
     <t>证监会就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见</t>
   </si>
   <si>
-    <t>联席会议部署开展金交所现场检查工作</t>
-  </si>
-  <si>
-    <t>中国证监会党委传达学习贯彻中央经济工作会议精神</t>
+    <t>风光股份在深交所上市</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第141次工作会议公告</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第137次会议审核结果公告</t>
+  </si>
+  <si>
+    <t>中国证券业协会发布《北京证券交易所股票向不特定合格投资者公开发行与承销特别条款》等两项自律规则</t>
+  </si>
+  <si>
+    <t>明月镜片在深交所上市</t>
+  </si>
+  <si>
+    <t>大商所党委认真学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
+  </si>
+  <si>
+    <t>深交所党委认真学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>华研精机、迪阿股份在深交所上市</t>
+  </si>
+  <si>
+    <t>坚持稳中求进，助力实体经济和资本市场高质量发展——中国金融期货交易所党委传达学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>大商所召开理事会结算委员会2021年度工作会议</t>
+  </si>
+  <si>
+    <t>关于征集2022年度基金从业人员后续培训建议的通知</t>
+  </si>
+  <si>
+    <t>关于举办2021年度公募基金新任基金经理培训的通知</t>
+  </si>
+  <si>
+    <t>坚持稳中求进，全心全意服务高质量发展——上海证券交易所党委学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>【第46号公告】《关于赵瀛等12名同志不再担任第十八届发审委委员的公告》</t>
+  </si>
+  <si>
+    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
+  </si>
+  <si>
+    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
+  </si>
+  <si>
+    <t>[上海]关于证券质押登记业务全面启用电子凭证的通知</t>
+  </si>
+  <si>
+    <t>【第45号公告】《关于聘任中国证券监督管理委员会第十八届发行审核委员会增补委员的公告》</t>
+  </si>
+  <si>
+    <t>通灵股份在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所就修订股票上市规则公开征求意见</t>
+  </si>
+  <si>
+    <t>中金所召开董事会风险委员会2021年度会议</t>
+  </si>
+  <si>
+    <t>家联科技在深交所上市</t>
+  </si>
+  <si>
+    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
+  </si>
+  <si>
+    <t>泽宇智能在深交所上市</t>
+  </si>
+  <si>
+    <t>大连商品交易所党委书记、理事长冉华： 做好提升大宗商品定价影响力大文章 高质量服务实体经济发展</t>
+  </si>
+  <si>
+    <t>公司总部办公及工具类软件采购项目等4个项目采购信息公示</t>
+  </si>
+  <si>
+    <t>粤万年青、达嘉维康、迈赫股份在深交所上市</t>
+  </si>
+  <si>
+    <t>大商所第四届理事会第十七次会议圆满召开</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（毛崴、姚石）</t>
+  </si>
+  <si>
+    <t>[北京]北京分公司“桌面及办公基础环境运维服务”等五个采购项目信息公示</t>
+  </si>
+  <si>
+    <t>关于就《中国证券投资基金业协会团体标准管理办法（征求意见稿）》征求意见的通知</t>
+  </si>
+  <si>
+    <t>大商所总经理席志勇：持续完善高标准、高质量市场体系 更好服务经济高质量发展</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（潘日忠）</t>
+  </si>
+  <si>
+    <t>证监会新闻发言人答记者问</t>
+  </si>
+  <si>
+    <t>中证报价成为金融稳定理事会认可的交易报告库</t>
+  </si>
+  <si>
+    <t>中国证券业协会发布《证券公司收益互换业务管理办法》</t>
+  </si>
+  <si>
+    <t>2021年11月大商所查处异常交易行为68起</t>
+  </si>
+  <si>
+    <t>中国证监会原发审委委员、上海证券交易所原科创板上市审核中心副主任操舰严重违纪违法被开除党籍和公职</t>
+  </si>
+  <si>
+    <t>证监会有关负责人就恒大集团风险事件答记者问</t>
+  </si>
+  <si>
+    <t>大商所召开理事会农业品委员会2021年度工作会议</t>
+  </si>
+  <si>
+    <t>证监会有关部门负责人就相关媒体报道答记者问</t>
+  </si>
+  <si>
+    <t>场外业务开展情况报告（2021年第11期，总第74期）</t>
+  </si>
+  <si>
+    <t>大商所组织召开理事会风险管理委员会2021年度工作会议</t>
+  </si>
+  <si>
+    <t>公司总部完善投资者保护宣传电子屏幕系统采购项目等4个项目采购信息公示</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（王书庆）</t>
+  </si>
+  <si>
+    <t>大商所召开理事会信息技术应用委员会2021年度工作会议</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（罗正华）</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（刘宏宇）</t>
+  </si>
+  <si>
+    <t>关于就《证券期货行政执法当事人承诺制度实施规定（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
+  </si>
+  <si>
+    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于就上市公司监管法规体系整合涉及相关规则公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>中国结算关于股票期权直接扣款功能上线的通知</t>
+  </si>
+  <si>
+    <t>监管规则适用指引——机构类第1号（2021年11月修订）</t>
+  </si>
+  <si>
+    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
+  </si>
+  <si>
+    <t>大商所深入开展“我为群众办实事”实践活动</t>
+  </si>
+  <si>
+    <t>关于在协会官网上线私募基金咨询自助查询系统的通知</t>
+  </si>
+  <si>
+    <t>汲取历史智慧 激发奋进力量——证券业协会党委学习贯彻党的十九届六中全会精神</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（耿志民）</t>
+  </si>
+  <si>
+    <t>【第44号公告】《公开征集上市公司股东权利管理暂行规定》</t>
+  </si>
+  <si>
+    <t>祝贺证券行业在“全国党史知识竞赛” 活动中获奖</t>
+  </si>
+  <si>
+    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>中金所修订违规违约处理办法</t>
+  </si>
+  <si>
+    <t>上交所就发布营业收入扣除指南答记者问</t>
+  </si>
+  <si>
+    <t>关于举办金融科技与数字化转型培训的通知</t>
+  </si>
+  <si>
+    <t>公司总部信息系统建设采购项目信息公示（2021年10月）</t>
+  </si>
+  <si>
+    <t>2021年第三季度专业委员会工作动态</t>
+  </si>
+  <si>
+    <t>中金所党委认真学习贯彻党的十九届六中全会精神</t>
+  </si>
+  <si>
+    <t>【第42号公告】关于修改《中国证券监督管理委员会上市公司并购重组审核委员会工作规程》的决定</t>
+  </si>
+  <si>
+    <t>【第43号公告】关于调整上市公司并购重组审核委员会委员的公告</t>
+  </si>
+  <si>
+    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
+  </si>
+  <si>
+    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
+  </si>
+  <si>
+    <t>场外业务开展情况报告（2021年第10期，总第73期）</t>
+  </si>
+  <si>
+    <t>关于就《公开募集证券投资基金投资顾问服务协议内容与格式指引（征求意见稿）》《...</t>
+  </si>
+  <si>
+    <t>证监会发布《证券期货业数据模型 第3部分：证券公司逻辑模型》等2项金融行业标准</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（杨锡刚、张友富）</t>
+  </si>
+  <si>
+    <t>上交所核心交易系统搬迁顺利完成“双活互备”基础设施总体布局不断完善</t>
+  </si>
+  <si>
+    <t>关于向托管机构提供私募基金管理人自律相关信息查询服务的通知</t>
+  </si>
+  <si>
+    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所股票向不特定合格投资者公开发行与承销业务实施细则》的公告</t>
+  </si>
+  <si>
+    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所上市公司股份协议转让细则》的公告</t>
+  </si>
+  <si>
+    <t>中国证券登记结算有限责任公司2022年度招聘启事</t>
+  </si>
+  <si>
+    <t>稳中提质态势不改，沪市主板公司完成2021年三季度报告披露</t>
+  </si>
+  <si>
+    <t>资本市场高质量发展集群初步显现——科创板公司2021年前三季度经营业绩概况</t>
+  </si>
+  <si>
+    <t>【第191号令】《关于修改〈非上市公众公司信息披露管理办法〉的决定》</t>
+  </si>
+  <si>
+    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
+  </si>
+  <si>
+    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
   </si>
   <si>
     <t>【第192号令】《证券交易所管理办法》</t>
   </si>
   <si>
-    <t>【第191号令】《关于修改〈非上市公众公司信息披露管理办法〉的决定》</t>
-  </si>
-  <si>
-    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
+    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
   </si>
   <si>
     <t>【第189号令】《北京证券交易所上市公司持续监管办法（试行）》</t>
   </si>
   <si>
-    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第46号公告】《关于赵瀛等12名同志不再担任第十八届发审委委员的公告》</t>
-  </si>
-  <si>
-    <t>【第45号公告】《关于聘任中国证券监督管理委员会第十八届发行审核委员会增补委员的公告》</t>
-  </si>
-  <si>
-    <t>【第44号公告】《公开征集上市公司股东权利管理暂行规定》</t>
-  </si>
-  <si>
-    <t>【第43号公告】关于调整上市公司并购重组审核委员会委员的公告</t>
-  </si>
-  <si>
-    <t>【第42号公告】关于修改《中国证券监督管理委员会上市公司并购重组审核委员会工作规程》的决定</t>
-  </si>
-  <si>
-    <t>【第41号公告】</t>
-  </si>
-  <si>
-    <t>审核情况公示（截至2021年12月17日）</t>
-  </si>
-  <si>
-    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】科创板提交再融资注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】发行监管部首次公开发行股票审核工作流程及申请企业情况</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第141次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第137次会议审核结果公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第139次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第138次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第137次工作会议公告</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第134次会议审核结果公告</t>
-  </si>
-  <si>
-    <t>【行政许可事项】证券、基金经营机构行政许可申请受理及审核情况公示</t>
-  </si>
-  <si>
-    <t>关于同意宁波天益医疗器械股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意奕东电子科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意采纳科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意广东希荻微电子股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>关于同意山东天岳先进科技股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>厦门证监局证券期货经营机构行政许可事项审核过程公示表2021-12-17</t>
-  </si>
-  <si>
-    <t>重庆证监局赴垫江县开展乡村振兴调研</t>
-  </si>
-  <si>
-    <t>辖区证券期货纠纷诉调对接机制建成并落地运行</t>
-  </si>
-  <si>
-    <t>宁夏证监局开展新冠肺炎聚集性疫情处置视频培训</t>
+    <t>证券行业促进乡村振兴公益行动正式启动</t>
+  </si>
+  <si>
+    <t>中国证监会党委与中央纪委国家监委驻证监会纪检监察组召开警示教育大会</t>
+  </si>
+  <si>
+    <t>场外业务开展情况报告（2021年第9期，总第72期）</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（周建明、 陆仁芳）</t>
+  </si>
+  <si>
+    <t>中国证券业协会与沪深证券交易所签署加强网下询价监管协作备忘录</t>
+  </si>
+  <si>
+    <t>“金融科技赋能证券行业反洗钱工作”交流会成功举办</t>
+  </si>
+  <si>
+    <t>建设适应高质量发展的证券人才队伍&lt;div&gt;——中国证券业协会会长安青松在2021金融街论坛年会上的发言&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>境内外专家相聚金融街论坛年会   探讨股票发行注册制改革</t>
+  </si>
+  <si>
+    <t>中国证券业协会发布《证券行业助力碳达峰碳中和目标行动报告》与《2020年度证券公司履行社会责任情况报告》</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（刘绍喜等5名责任人员）</t>
+  </si>
+  <si>
+    <t>首发企业信息披露质量抽查抽签情况（2021年10月15日）</t>
+  </si>
+  <si>
+    <t>中金所开展“2021年世界投资者周”系列活动</t>
+  </si>
+  <si>
+    <t>关于提供私募基金信息披露备份系统定向披露功能便利措施的通知</t>
+  </si>
+  <si>
+    <t>关于在私募产品运行表中增加债券投资相关填报事项的通知</t>
+  </si>
+  <si>
+    <t>《证券期货违法行为行政处罚办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>关于举办深化新三板改革暨北交所业务规则系列培训的通知</t>
+  </si>
+  <si>
+    <t>2020年度证券审计市场分析报告</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（冯鑫）</t>
+  </si>
+  <si>
+    <t>上海证券期货文化发展基金会2021年联合研究项目招标公告</t>
+  </si>
+  <si>
+    <t>中金所减收股指和国债期货交割手续费</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（王秀生）</t>
+  </si>
+  <si>
+    <t>中金所召开国债期货杰出案例专家评审会</t>
+  </si>
+  <si>
+    <t>中国证监会市场禁入决定书（廖良茂、曾祥洋）</t>
   </si>
   <si>
     <t>中国证券监督管理委员会行政复议决定书（王荣民、蒯清庭）</t>
@@ -199,99 +658,69 @@
     <t>中国证券监督管理委员会行政复议决定书（邵伟宇）</t>
   </si>
   <si>
+    <t>关于发布《再融资业务若干问题解答》的通知</t>
+  </si>
+  <si>
+    <t>首发企业信息披露质量抽查抽签情况（2021年7月4日）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（杨金柱）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
+  </si>
+  <si>
     <t>中国证券监督管理委员会行政复议决定书（张伟志）</t>
   </si>
   <si>
-    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（杨金柱）</t>
+    <t>《关于完善全国中小企业股份转让系统终止挂牌制度的指导意见》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
   </si>
   <si>
     <t>中国证券监督管理委员会行政复议决定书（门赫）</t>
   </si>
   <si>
-    <t>中国证监会行政处罚决定书（潘日忠）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（耿志民）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘毅）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘红建)</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（洪文宁）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国证监会处罚决定书（陈礼豪、许振华） </t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（杨锡刚、张友富）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（周建明、 陆仁芳）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（刘绍喜等5名责任人员）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（冯鑫）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（王秀生）</t>
-  </si>
-  <si>
-    <t>中国证监会市场禁入决定书（廖良茂、曾祥洋）</t>
-  </si>
-  <si>
-    <t>关于对万和证券股份有限公司采取责令改正措施的决定</t>
-  </si>
-  <si>
-    <t>关于对长沙华六里资产管理有限公司采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对王超采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对金洲慈航集团股份有限公司采取出具警示函措施的决定(监管措施〔2021〕031号)</t>
-  </si>
-  <si>
-    <t>关于对朱要文采取出具警示函措施的决定(监管措施〔2021〕30号)</t>
-  </si>
-  <si>
-    <t>关于对美盛文化创意股份有限公司及相关人员采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>证监会新闻发言人答记者问</t>
-  </si>
-  <si>
-    <t>证监会有关负责人就恒大集团风险事件答记者问</t>
-  </si>
-  <si>
-    <t>证监会有关部门负责人就相关媒体报道答记者问</t>
-  </si>
-  <si>
-    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
-  </si>
-  <si>
-    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
-  </si>
-  <si>
-    <t>证监会发布《证券期货业数据模型 第3部分：证券公司逻辑模型》等2项金融行业标准</t>
-  </si>
-  <si>
-    <t>监管规则适用指引——机构类第1号（2021年11月修订）</t>
+    <t>关于发行审核业务问答部分条款调整事项的通知</t>
+  </si>
+  <si>
+    <t>关于提供证监会系统离职人员信息查询比对服务的通知</t>
   </si>
   <si>
     <t>监管规则适用指引——发行类第2号</t>
   </si>
   <si>
+    <t>关于恢复发审会现场聆讯工作安排的通知</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于发行规模达到一定数量实行联合保荐的相关标准</t>
+  </si>
+  <si>
+    <t>《关于修改&lt;证券公司股权管理规定&gt;的决定》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《上市公司信息披露管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《证券市场资信评级业务管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>发行监管问答——关于上市公司非公开发行股票引入战略投资者有关事项的监管要求</t>
+  </si>
+  <si>
     <t>监管规则适用指引——审计类第1号</t>
   </si>
   <si>
+    <t>发行监管问答——关于引导规范上市公司融资行为的监管要求（修订版）</t>
+  </si>
+  <si>
     <t>监管规则适用指引——关于申请首发上市企业股东信息披露</t>
   </si>
   <si>
@@ -301,376 +730,175 @@
     <t>监管规则适用指引——评估类第1号</t>
   </si>
   <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年10月15日）</t>
-  </si>
-  <si>
-    <t>2020年度证券审计市场分析报告</t>
-  </si>
-  <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年7月4日）</t>
-  </si>
-  <si>
-    <t>关于提供证监会系统离职人员信息查询比对服务的通知</t>
-  </si>
-  <si>
-    <t>关于恢复发审会现场聆讯工作安排的通知</t>
-  </si>
-  <si>
-    <t>首发企业信息披露质量抽查抽签情况（2021年4月25日）</t>
-  </si>
-  <si>
-    <t>关于发行审核业务问答部分条款调整事项的通知</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于上市公司非公开发行股票引入战略投资者有关事项的监管要求</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于引导规范上市公司融资行为的监管要求（修订版）</t>
-  </si>
-  <si>
     <t>发行监管问答——关于申请首发企业执行新收入准则相关事项的问答</t>
   </si>
   <si>
-    <t>关于发布《再融资业务若干问题解答》的通知</t>
-  </si>
-  <si>
-    <t>发行监管问答——关于发行规模达到一定数量实行联合保荐的相关标准</t>
-  </si>
-  <si>
-    <t>关于就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>中国证监会关于就修改《内地与香港股票市场交易互联互通机制若干规定》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《证券期货行政执法当事人承诺制度实施规定（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就上市公司监管法规体系整合涉及相关规则公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《保荐人尽职调查工作准则》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于就《中国证监会关于北京证券交易所上市公司转板的指导意见》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>《证券期货违法行为行政处罚办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《关于完善全国中小企业股份转让系统终止挂牌制度的指导意见》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《关于修改&lt;证券公司股权管理规定&gt;的决定》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《上市公司信息披露管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《证券市场资信评级业务管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>中央第二巡视组巡视上海证券交易所党委工作动员会召开</t>
-  </si>
-  <si>
-    <t>坚持稳中求进，全心全意服务高质量发展——上海证券交易所党委学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
-  </si>
-  <si>
-    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
-  </si>
-  <si>
-    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
-  </si>
-  <si>
-    <t>中国证监会原发审委委员、上海证券交易所原科创板上市审核中心副主任操舰严重违纪违法被开除党籍和公职</t>
-  </si>
-  <si>
-    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
-  </si>
-  <si>
-    <t>上交所就发布营业收入扣除指南答记者问</t>
-  </si>
-  <si>
-    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
-  </si>
-  <si>
-    <t>上交所核心交易系统搬迁顺利完成“双活互备”基础设施总体布局不断完善</t>
-  </si>
-  <si>
-    <t>稳中提质态势不改，沪市主板公司完成2021年三季度报告披露</t>
-  </si>
-  <si>
-    <t>资本市场高质量发展集群初步显现——科创板公司2021年前三季度经营业绩概况</t>
-  </si>
-  <si>
-    <t>中国证监会党委与中央纪委国家监委驻证监会纪检监察组召开警示教育大会</t>
-  </si>
-  <si>
-    <t>不断推进资本市场对外开放 服务经济高质量发展——中国证监会副主席方星海在2021年上交所国际投资者大会上的致辞（视频）</t>
-  </si>
-  <si>
-    <t>推进高水平对外开放 服务构建新发展格局——2021年上海证券交易所国际投资者大会开幕</t>
-  </si>
-  <si>
-    <t>中央第三巡视组巡视深圳证券交易所党委工作动员会召开</t>
-  </si>
-  <si>
-    <t>风光股份在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
-  </si>
-  <si>
-    <t>明月镜片在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所党委认真学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>华研精机、迪阿股份在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所就修订股票上市规则公开征求意见</t>
-  </si>
-  <si>
-    <t>通灵股份在深交所上市</t>
-  </si>
-  <si>
-    <t>家联科技在深交所上市</t>
-  </si>
-  <si>
-    <t>泽宇智能在深交所上市</t>
-  </si>
-  <si>
-    <t>粤万年青、达嘉维康、迈赫股份在深交所上市</t>
-  </si>
-  <si>
-    <t>陈华平任深圳证券交易所党委书记</t>
-  </si>
-  <si>
-    <t>深交所开展“宪法宣传周”系列普法宣传活动</t>
-  </si>
-  <si>
-    <t>建研设计、观想科技在深交所上市</t>
-  </si>
-  <si>
-    <t>深港通高质量运行五周年</t>
-  </si>
-  <si>
-    <t>洁雅股份在深交所上市</t>
-  </si>
-  <si>
-    <t>喜悦智行在深交所上市</t>
-  </si>
-  <si>
-    <t>三羊马在深交所上市</t>
-  </si>
-  <si>
-    <t>坚持稳中求进，助力实体经济和资本市场高质量发展——中国金融期货交易所党委传达学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>中金所召开董事会风险委员会2021年度会议</t>
-  </si>
-  <si>
-    <t>中金所修订违规违约处理办法</t>
-  </si>
-  <si>
-    <t>中金所党委认真学习贯彻党的十九届六中全会精神</t>
-  </si>
-  <si>
-    <t>中金所开展“2021年世界投资者周”系列活动</t>
-  </si>
-  <si>
-    <t>中金所减收股指和国债期货交割手续费</t>
-  </si>
-  <si>
-    <t>上海证券期货文化发展基金会2021年联合研究项目招标公告</t>
-  </si>
-  <si>
-    <t>中金所召开国债期货杰出案例专家评审会</t>
-  </si>
-  <si>
-    <t>何庆文同志任中国金融期货交易所党委书记</t>
-  </si>
-  <si>
-    <t>中金所召开2021年度做市商工作座谈会</t>
-  </si>
-  <si>
-    <t>关于统一账户平台、身份信息核查系统暂停对外提供服务的通知</t>
-  </si>
-  <si>
-    <t>[上海]关于证券质押登记业务全面启用电子凭证的通知</t>
-  </si>
-  <si>
-    <t>公司总部办公及工具类软件采购项目等4个项目采购信息公示</t>
-  </si>
-  <si>
-    <t>[北京]北京分公司“桌面及办公基础环境运维服务”等五个采购项目信息公示</t>
-  </si>
-  <si>
-    <t>公司总部完善投资者保护宣传电子屏幕系统采购项目等4个项目采购信息公示</t>
-  </si>
-  <si>
-    <t>中国结算关于股票期权直接扣款功能上线的通知</t>
-  </si>
-  <si>
-    <t>公司总部续签内部评级体系服务合同等9个项目采购信息公示</t>
-  </si>
-  <si>
-    <t>公司总部信息系统建设采购项目信息公示（2021年10月）</t>
-  </si>
-  <si>
-    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所股票向不特定合格投资者公开发行与承销业务实施细则》的公告</t>
-  </si>
-  <si>
-    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所上市公司股份协议转让细则》的公告</t>
-  </si>
-  <si>
-    <t>中国证券登记结算有限责任公司2022年度招聘启事</t>
-  </si>
-  <si>
-    <t>中国结算北京分公司关于修订并发布部分业务规则的通知</t>
-  </si>
-  <si>
-    <t>关于发布《中国证券登记结算有限责任公司北京分公司北京证券交易所股票登记结算业务指南》等2件业务规则的通知</t>
-  </si>
-  <si>
-    <t>中国结算关于修订部分业务规则的通知</t>
-  </si>
-  <si>
-    <t>关于征集2022年度基金从业人员后续培训建议的通知</t>
-  </si>
-  <si>
-    <t>关于举办2021年度公募基金新任基金经理培训的通知</t>
-  </si>
-  <si>
-    <t>关于就《中国证券投资基金业协会团体标准管理办法（征求意见稿）》征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于在协会官网上线私募基金咨询自助查询系统的通知</t>
-  </si>
-  <si>
-    <t>关于举办金融科技与数字化转型培训的通知</t>
-  </si>
-  <si>
-    <t>关于就《公开募集证券投资基金投资顾问服务协议内容与格式指引（征求意见稿）》《...</t>
-  </si>
-  <si>
-    <t>关于向托管机构提供私募基金管理人自律相关信息查询服务的通知</t>
-  </si>
-  <si>
-    <t>关于在私募产品运行表中增加债券投资相关填报事项的通知</t>
-  </si>
-  <si>
-    <t>关于提供私募基金信息披露备份系统定向披露功能便利措施的通知</t>
-  </si>
-  <si>
-    <t>关于举办深化新三板改革暨北交所业务规则系列培训的通知</t>
-  </si>
-  <si>
-    <t>中国证券业协会发布《北京证券交易所股票向不特定合格投资者公开发行与承销特别条款》等两项自律规则</t>
-  </si>
-  <si>
-    <t>中证报价成为金融稳定理事会认可的交易报告库</t>
-  </si>
-  <si>
-    <t>中国证券业协会发布《证券公司收益互换业务管理办法》</t>
-  </si>
-  <si>
-    <t>场外业务开展情况报告（2021年第11期，总第74期）</t>
-  </si>
-  <si>
-    <t>汲取历史智慧 激发奋进力量——证券业协会党委学习贯彻党的十九届六中全会精神</t>
-  </si>
-  <si>
-    <t>祝贺证券行业在“全国党史知识竞赛” 活动中获奖</t>
-  </si>
-  <si>
-    <t>2021年第三季度专业委员会工作动态</t>
-  </si>
-  <si>
-    <t>场外业务开展情况报告（2021年第10期，总第73期）</t>
-  </si>
-  <si>
-    <t>证券行业促进乡村振兴公益行动正式启动</t>
-  </si>
-  <si>
-    <t>场外业务开展情况报告（2021年第9期，总第72期）</t>
-  </si>
-  <si>
-    <t>中国证券业协会与沪深证券交易所签署加强网下询价监管协作备忘录</t>
-  </si>
-  <si>
-    <t>“金融科技赋能证券行业反洗钱工作”交流会成功举办</t>
-  </si>
-  <si>
-    <t>建设适应高质量发展的证券人才队伍&lt;div&gt;——中国证券业协会会长安青松在2021金融街论坛年会上的发言&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>境内外专家相聚金融街论坛年会   探讨股票发行注册制改革</t>
-  </si>
-  <si>
-    <t>中国证券业协会发布《证券行业助力碳达峰碳中和目标行动报告》与《2020年度证券公司履行社会责任情况报告》</t>
-  </si>
-  <si>
-    <t>各方见证  随机抽取 首发企业信息披露质量抽查名单确定</t>
-  </si>
-  <si>
-    <t>中国证券业协会发布《证券公司声誉风险管理指引》</t>
-  </si>
-  <si>
-    <t>努力践行新的发展理念 推动证券业高质量发展&lt;div&gt;——中国证券业协会会长安青松在2021年亚太金融论坛上的发言&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>中证协“四合一”投教进校园落“沪” 合作范围覆盖已达全国十个省市</t>
-  </si>
-  <si>
-    <t>证券业协会开展证券公司发布证券研究报告业务经营情况统计</t>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
   </si>
   <si>
     <t>2021-12-17</t>
   </si>
   <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
     <t>2021-12-13</t>
   </si>
   <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
     <t>2021-10-30</t>
   </si>
   <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2021-11-19</t>
-  </si>
-  <si>
-    <t>2021-11-12</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2021-12-14</t>
+    <t>2021-10-29</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
   </si>
   <si>
     <t>2021-07-09</t>
@@ -679,66 +907,45 @@
     <t>2021-07-08</t>
   </si>
   <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
     <t>2021-06-29</t>
   </si>
   <si>
     <t>2021-06-23</t>
   </si>
   <si>
-    <t>2021-12-06</t>
-  </si>
-  <si>
-    <t>2021-11-22</t>
-  </si>
-  <si>
-    <t>2021-11-17</t>
-  </si>
-  <si>
-    <t>2021-11-11</t>
-  </si>
-  <si>
-    <t>2021-11-04</t>
-  </si>
-  <si>
-    <t>2021-10-27</t>
-  </si>
-  <si>
-    <t>2021-10-18</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>2021-07-28</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2021-11-29</t>
-  </si>
-  <si>
-    <t>2021-11-05</t>
-  </si>
-  <si>
-    <t>2021-11-26</t>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
   </si>
   <si>
     <t>2021-05-28</t>
   </si>
   <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
     <t>2021-03-09</t>
   </si>
   <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
     <t>2021-02-09</t>
   </si>
   <si>
@@ -748,262 +955,619 @@
     <t>2021-01-22</t>
   </si>
   <si>
-    <t>2021-10-15</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-07-04</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
-    <t>2021-04-25</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>2021-02-14</t>
-  </si>
-  <si>
     <t>2021-01-16</t>
   </si>
   <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
-    <t>2021-04-23</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-10-10</t>
-  </si>
-  <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
-    <t>2021-10-28</t>
-  </si>
-  <si>
-    <t>2021-10-25</t>
-  </si>
-  <si>
-    <t>2021-10-12</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>2021-12-08</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>2021-12-02</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>2021-11-15</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2021-08-13</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>2021-11-25</t>
-  </si>
-  <si>
-    <t>2021-11-24</t>
-  </si>
-  <si>
-    <t>2021-11-18</t>
-  </si>
-  <si>
-    <t>2021-11-02</t>
-  </si>
-  <si>
-    <t>2021-09-24</t>
-  </si>
-  <si>
-    <t>2021-09-16</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>2021-11-10</t>
-  </si>
-  <si>
-    <t>2021-10-29</t>
-  </si>
-  <si>
-    <t>2021-10-26</t>
-  </si>
-  <si>
-    <t>2021-10-23</t>
-  </si>
-  <si>
-    <t>2021-10-22</t>
-  </si>
-  <si>
-    <t>2021-10-21</t>
-  </si>
-  <si>
-    <t>2021-10-14</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>2021-09-23</t>
+    <t>http://www.csrc.gov.cn/csrc/c101830/c1663766/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101830/c1663761/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101830/c1663721/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106250/c1029662/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341098.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1661963/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106307/c1662076/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/guangdong/c104560/c1661958/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/neimenggu/c103712/c1661975/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/xiamen/c104096/c1661954/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/jiangsu/c100619/c1661823/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/anhui/c100695/c1661782/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/anhui/c100695/c1661781/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/neimenggu/c103712/c1661979/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211224/26694.html</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417739843.htm</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417917376.htm</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341114.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341099.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105935/c1004167/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662226/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662094/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667439.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667440.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn//www.chinaclear.cn/zdjs/editor_file/20211224161708605.pdf</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/db5df073fdaf4a9391958d9710733729.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8a7be8427ce74cb882fba7c25514ff2d.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662240/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1662244/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1662251/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101954/c1661985/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417519581.htm</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590387.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590382.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590375.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106251/c1569384/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081336998736.htm</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/qinghai/c104510/c1661518/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/jilin/c103800/c1660351/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/jilin/c103800/c1660341/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211223_590365.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211223/26673.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211223_590372.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148091.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211223_5666377.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341086.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148089.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1660392/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101846/c1662075/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341080.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211222_590337.html</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341077.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300571/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100040/c1659749/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105917/c1659778/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341081.html</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081169043586.htm</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341073.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211221_590333.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/40a8135b1ef44cdcb69718542abc568f.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1657675/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300411/index.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211220_148073.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1657567/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211220_148074.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211220_590307.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211219_148066.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1656997/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300347/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1657004/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1656589/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1657004/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1656992/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1656428/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1617332/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1656767/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590300.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590289.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1656567/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1653905/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211216_148053.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fc83afb344c445f1bc9de7792327cff6.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590258.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300200/index.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590286.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211215_590253.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211215_590238.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211215/26555.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300271/index.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13148.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13144.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6299559/index.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211213_5657048.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1615684/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655965.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655966.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/shfgz/202112/dcae5436f91048a0926eef4873d3e422.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1615680/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590186.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590195.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211210/26493.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590182.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8d9450ed61324f969d9e38fbd59d86c9.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590185.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211209_5654289.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211208_590160.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298912/index.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fff6a7ae3b874c5b9f5a60a378af9715.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211207_590134.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298840/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1659631/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202112/5eb80637e37f44468b24a8ebba5d2a10.shtml</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211206_13127.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298791/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1605830/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211204_147995.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211203_147993.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298520/index.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211203_5649700.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1605816/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298524/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1605514/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211201_147976.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298395/index.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298370/index.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/872254713e464a36a1575728c4ef4301.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/b755b353c1cb4164bd07f61396bd3790.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1659543/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298181/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1659450/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1659521/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1603638/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1598150/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298173/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1600717/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1560018/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/dfff29210c144e6c8ca3c6fb8ad90ead.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101838/c1570899/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211126_5644493.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297831/index.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297877/index.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211124_13089.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1ace838456984feaa46c758110d651b8.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297873/index.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297884/index.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211122_147900.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1583540/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297708/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101954/c1605915/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211119_147895.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101802/c1559800/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211119/26195.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211119_5639694.shtml</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211118_13061.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/9e31522081f44d30a8bc7593bd7a22cf.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1352a198a7b44d62b1042629ca8e04ae.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211116_147852.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211115/26373.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/691ad232273b42928fc3baeda81b2d7e.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560176/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1556048/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211112_5633548.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211110_147826.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211105_13045.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1556052/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/f3bd0d5a53cf484182292184fbb2cb63.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560133/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211103_5626545.shtml</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211103_13039.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/219be73e0f2a4b0a9bf67d154b8ec700.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/4a76814ff0834839b65dfff8709d2618.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/7ff7a80968df49a49b6c478de725761b.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626062.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626061.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101831/c1496639/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101834/c1496641/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101831/c1496639/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101864/c1496650/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1615684/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1615680/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101954/c1605915/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560176/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560180/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c106251/c1569384/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105908/c1489525/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105892/c1004823/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1656567/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105899/c1653905/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1653690/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1653672/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1618154/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105899/c1653884/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c106250/c1029662/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653968/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653900/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1653895/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105906/c1623342/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105906/c1623305/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/xiamen/c104096/c1656714/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/chongqing/c101075/c1654167/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/guangxi/c100999/c1654067/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/ningxia/c101455/c1653924/content.shtml</t>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211029_147760.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211029_5619451.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211028_147753.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560135/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211027_147738.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211026_147732.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211023_147720.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211022_147719.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211021_147687.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1560137/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101819/c1499941/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20210930/25749.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12983.html</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12985.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c1494322/content.shtml</t>
+  </si>
+  <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210916_12956.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105942/c1500040/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1608417/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20210813/25428.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20210813/25280.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c24b0844aadf94ed8a9bcc5fa9db886fc/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20210730/25264.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c47ce4ca5681d4b57a72e7d3294e04044/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c105938/c1496822/content.shtml</t>
@@ -1012,99 +1576,69 @@
     <t>http://www.csrc.gov.cn/csrc/c105938/c1496823/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c100107/c1447189/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101819/c1499944/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496825/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c105938/c5a6dfd70b31c4683a8a0cd9efd4f3b34/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496825/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c100114/cf8c0ae13c99448dd9cdb43484221676c/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/cd71f267b95b648f2b81adc61fa70c0b9/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c105938/c558d1e43ee6041a89967165b08ab55f4/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1583540/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1603455/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608682/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608662/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608659/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560133/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560135/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1560137/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c1608417/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c24b0844aadf94ed8a9bcc5fa9db886fc/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101927/c47ce4ca5681d4b57a72e7d3294e04044/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/hainan/c104738/c1656426/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/hunan/c104484/c1655931/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/qingdao/c104016/c1654075/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/heilongjiang/c103838/c1654073/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/heilongjiang/c103838/c1654070/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1653827/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1605830/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1605816/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1605514/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1598150/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1556048/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1556052/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101838/c1570899/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c100107/c1447185/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101819/c1499905/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101802/c1570902/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101819/c1499908/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100107/c1447190/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c31b1a65578e74fc4a88387b0830e67c0/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c69ec42b64d3547b38e7379dfad140631/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/cdb260c649846458da6c283feabd536cb/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c13571e73081345378d2006cd4c27d333/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c7a3434d7014a46ca9f07ceb5e92d7fe3/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100107/c1447186/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c105942/c1570905/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c100107/c1447187/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101802/c1570908/content.shtml</t>
   </si>
   <si>
@@ -1114,373 +1648,7 @@
     <t>http://www.csrc.gov.cn/csrc/c105942/c1570914/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101819/c1499941/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105942/c1500040/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101819/c1499944/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101819/c1499905/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101819/c1499908/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101819/c1499947/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100107/c1447185/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100107/c1447186/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100107/c1447187/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100107/c1447188/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100107/c1447189/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100107/c1447190/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1656997/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1656767/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1603638/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1600717/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1560018/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101802/c1559800/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101802/c1559802/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496649/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c1494322/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/cd71f267b95b648f2b81adc61fa70c0b9/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/cf8c0ae13c99448dd9cdb43484221676c/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c31b1a65578e74fc4a88387b0830e67c0/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c69ec42b64d3547b38e7379dfad140631/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/cdb260c649846458da6c283feabd536cb/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c13571e73081345378d2006cd4c27d333/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c7a3434d7014a46ca9f07ceb5e92d7fe3/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211010_5602914.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211213_5657048.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655966.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655965.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211209_5654289.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211203_5649700.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211126_5644493.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211119_5639694.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211112_5633548.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211103_5626545.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626062.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626061.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211029_5619451.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211025_5613951.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211025_5613952.shtml</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211012_588773.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590300.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590289.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590286.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590258.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211215_590253.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211215_590238.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590195.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590186.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590185.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590182.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211208_590160.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211207_590134.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211206_590119.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211206_590118.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211206_590106.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211205_590099.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211203_590082.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211202_590061.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211130_589940.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211215/26555.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211210/26493.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211119/26195.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211115/26373.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210930/25749.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210813/25280.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210813/25428.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210730/25264.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210624/25222.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20210326/25104.html</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fc83afb344c445f1bc9de7792327cff6.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/shfgz/202112/dcae5436f91048a0926eef4873d3e422.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8d9450ed61324f969d9e38fbd59d86c9.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fff6a7ae3b874c5b9f5a60a378af9715.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202112/5eb80637e37f44468b24a8ebba5d2a10.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/b755b353c1cb4164bd07f61396bd3790.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/872254713e464a36a1575728c4ef4301.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/dfff29210c144e6c8ca3c6fb8ad90ead.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/4ba59cf3d70a4f91825dd7808998aed7.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1ace838456984feaa46c758110d651b8.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/9e31522081f44d30a8bc7593bd7a22cf.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1352a198a7b44d62b1042629ca8e04ae.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/691ad232273b42928fc3baeda81b2d7e.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/f3bd0d5a53cf484182292184fbb2cb63.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/219be73e0f2a4b0a9bf67d154b8ec700.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/4a76814ff0834839b65dfff8709d2618.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/7ff7a80968df49a49b6c478de725761b.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202110/e6468514bfd048eca9c3ee1a279e4d8a.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202110/64cd8427ecff4b9e8a654696bcee1e03.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202110/84d1cf51aad04805b25751751e31b1f1.shtml</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13148.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13144.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211206_13127.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211124_13089.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211118_13061.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211105_13045.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211103_13039.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12985.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12983.html</t>
-  </si>
-  <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210916_12956.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211216_148053.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211204_147995.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211203_147993.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211201_147976.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211122_147900.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211119_147895.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211116_147852.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211110_147826.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211029_147760.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211028_147753.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211027_147738.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211026_147732.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211023_147720.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211022_147719.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211021_147687.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211015_147663.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211015_147659.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211014_147656.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202109/t20210929_147627.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202109/t20210923_147598.html</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +2019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1876,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1890,13 +2058,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1904,797 +2072,797 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2702,181 +2870,181 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2884,13 +3052,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2898,69 +3066,69 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2968,195 +3136,195 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
         <v>247</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3164,27 +3332,27 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3192,13 +3360,13 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3206,167 +3374,167 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
         <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3374,55 +3542,55 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3430,293 +3598,293 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3724,41 +3892,41 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3766,13 +3934,13 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3780,881 +3948,1343 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C146" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C147" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C150" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
         <v>265</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="C161" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C162" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C164" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C165" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C166" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C168" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
         <v>288</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
         <v>289</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
         <v>290</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>488</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" t="s">
+        <v>291</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" t="s">
+        <v>292</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" t="s">
+        <v>292</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
+        <v>293</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" t="s">
+        <v>293</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>294</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" t="s">
+        <v>295</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" t="s">
+        <v>296</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" t="s">
+        <v>297</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" t="s">
+        <v>298</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" t="s">
+        <v>299</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" t="s">
+        <v>299</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" t="s">
+        <v>299</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214" t="s">
+        <v>300</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" t="s">
+        <v>300</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>221</v>
+      </c>
+      <c r="C216" t="s">
+        <v>300</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>222</v>
+      </c>
+      <c r="C217" t="s">
+        <v>301</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" t="s">
+        <v>302</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" t="s">
+        <v>303</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>304</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" t="s">
+        <v>226</v>
+      </c>
+      <c r="C221" t="s">
+        <v>305</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s">
+        <v>227</v>
+      </c>
+      <c r="C222" t="s">
+        <v>306</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
+        <v>306</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" t="s">
+        <v>230</v>
+      </c>
+      <c r="C225" t="s">
+        <v>306</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" t="s">
+        <v>306</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" t="s">
+        <v>307</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" t="s">
+        <v>308</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229" t="s">
+        <v>309</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+      <c r="C231" t="s">
+        <v>311</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232" t="s">
+        <v>312</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" t="s">
+        <v>238</v>
+      </c>
+      <c r="C233" t="s">
+        <v>313</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4858,6 +5488,39 @@
     <hyperlink ref="D198" r:id="rId197"/>
     <hyperlink ref="D199" r:id="rId198"/>
     <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zjh/regulation_news.xlsx
+++ b/zjh/regulation_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="546">
   <si>
     <t>主体</t>
   </si>
@@ -28,28 +28,34 @@
     <t>链接</t>
   </si>
   <si>
-    <t>行政许可结果</t>
-  </si>
-  <si>
-    <t>行政许可进度</t>
-  </si>
-  <si>
     <t>上期所动态</t>
   </si>
   <si>
-    <t>发审委公告</t>
-  </si>
-  <si>
-    <t>政务信息</t>
-  </si>
-  <si>
-    <t>辖区监管动态</t>
+    <t>证监会政务信息</t>
+  </si>
+  <si>
+    <t>深交所动态</t>
+  </si>
+  <si>
+    <t>郑商所动态</t>
+  </si>
+  <si>
+    <t>证监会辖区监管动态</t>
+  </si>
+  <si>
+    <t>证监会行政许可结果</t>
+  </si>
+  <si>
+    <t>中国结算动态</t>
+  </si>
+  <si>
+    <t>证券业协会动态</t>
   </si>
   <si>
     <t>中金所动态</t>
   </si>
   <si>
-    <t>郑商所动态</t>
+    <t>证监会征求意见</t>
   </si>
   <si>
     <t>证监会要闻</t>
@@ -58,25 +64,19 @@
     <t>上交所动态</t>
   </si>
   <si>
-    <t>中国结算动态</t>
-  </si>
-  <si>
-    <t>征求意见</t>
+    <t>证监会行政许可进度</t>
   </si>
   <si>
     <t>证监会公告</t>
   </si>
   <si>
-    <t>深交所动态</t>
-  </si>
-  <si>
-    <t>证券业协会动态</t>
+    <t>证监会发审委公告</t>
   </si>
   <si>
     <t>大商所动态</t>
   </si>
   <si>
-    <t>监管指引</t>
+    <t>证监会监管指引</t>
   </si>
   <si>
     <t>基金业协会动态</t>
@@ -85,336 +85,363 @@
     <t>证监会令</t>
   </si>
   <si>
+    <t>关于2022年元旦期间有关工作安排的通知</t>
+  </si>
+  <si>
+    <t>关于同意灵宝市新凌铅业有限责任公司“XLGF”牌铅锭注册的公告</t>
+  </si>
+  <si>
+    <t>关于对英洛华科技股份有限公司及相关人员采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对银川中能新财科技有限公司、孙庚文、刘亚玲、马敬忠采取出具警示函监管措施的决定</t>
+  </si>
+  <si>
+    <t>深圳证监局关于对深圳市宝明科技股份有限公司、李军、李晗、谢志坚采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>关于对包头钢铁（集团）有限责任公司采取出具警示函行政监管措施的决定</t>
+  </si>
+  <si>
+    <t>优宁维、奥尼电子在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所与新加坡交易所签署关于深新ETF产品互通的合作谅解备忘录 中新资本市场合作进一步深化</t>
+  </si>
+  <si>
+    <t>关于2022年元旦休市期间风险提示的函</t>
+  </si>
+  <si>
+    <t>北京证券法律服务监管工作通讯</t>
+  </si>
+  <si>
+    <t>海南证监局证券期货监管行政许可申请受理及审核情况公示表（截至2021年12月27日）</t>
+  </si>
+  <si>
+    <t>四川证监局关于2021年上市公司及公司债券发行人随机抽查工作的公告</t>
+  </si>
+  <si>
+    <t>关于2021年律师事务所从事证券法律业务现场检查“双随机”抽取结果的公示</t>
+  </si>
+  <si>
+    <t>关于同意晶科能源股份有限公司首次公开发行股票注册的批复</t>
+  </si>
+  <si>
+    <t>关于对致同会计师事务所（特殊普通合伙）及注册会计师张旭宏、刘艳涛采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>上海国际能源交易中心发布关于2022年元旦期间有关工作安排的通知</t>
+  </si>
+  <si>
+    <t>关于对中瑞世联资产评估集团有限公司 及注册评估师胡家昊、牛苗苗采取出具警示函措施的决定</t>
+  </si>
+  <si>
+    <t>[上海]购买Gartner行业咨询服务等6个项目信息公示</t>
+  </si>
+  <si>
+    <t>【深圳】深圳分公司信创防病毒软件等3个采购项目信息公示</t>
+  </si>
+  <si>
+    <t>[北京]北京分公司“办公桌面云瘦终端采购项目”等四个采购项目信息公示</t>
+  </si>
+  <si>
+    <t>关于郑州商品交易所资深高级分析师名单评选结果的通知</t>
+  </si>
+  <si>
+    <t>中国证券业协会公布2021年优秀重点课题报告名单</t>
+  </si>
+  <si>
+    <t>关于核准内蒙古太仆寺农村商业银行股份有限公司定向发行股票的批复</t>
+  </si>
+  <si>
+    <t>关于核准广东芭薇生物科技股份有限公司定向发行股票的批复</t>
+  </si>
+  <si>
     <t>关于核准哈尔滨均信融资担保股份有限公司定向发行股票的批复</t>
   </si>
   <si>
-    <t>关于核准广东芭薇生物科技股份有限公司定向发行股票的批复</t>
-  </si>
-  <si>
-    <t>关于核准内蒙古太仆寺农村商业银行股份有限公司定向发行股票的批复</t>
+    <t>关于发布《中国证券登记结算有限责任公司 上海证券交易所B转H业务实施细则》的通知</t>
+  </si>
+  <si>
+    <t>关于变更指定苹果期货质检机构的公告</t>
+  </si>
+  <si>
+    <t>关于就《中国证券登记结算有限责任公司境内外证券交易所互联互通存托凭证登记结算业务实施细则（公开征求意见稿）》征求意见的通知</t>
+  </si>
+  <si>
+    <t>关于同意江苏省镔鑫钢铁集团有限公司变更螺纹钢产品标牌的公告</t>
+  </si>
+  <si>
+    <t>深交所启动互联互通存托凭证业务并就深市配套业务规则公开征求意见</t>
+  </si>
+  <si>
+    <t>关于2022年元旦期间夜盘交易时间提示的通知</t>
+  </si>
+  <si>
+    <t>长江材料、善水科技在深交所上市</t>
+  </si>
+  <si>
+    <t>中金所减收2022年股指期货和国债期货交割手续费</t>
+  </si>
+  <si>
+    <t>关于统一账户平台、身份信息核查系统暂停对外提供服务的通知</t>
+  </si>
+  <si>
+    <t>关于就《境内企业境外发行证券和上市备案管理办法（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>中国证监会和香港证监会举行第十二次两地执法合作工作会议</t>
+  </si>
+  <si>
+    <t>证监会就境外上市相关制度规则公开征求意见</t>
+  </si>
+  <si>
+    <t>深沪港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
+  </si>
+  <si>
+    <t>沪深港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
+  </si>
+  <si>
+    <t>审核情况公示（截至2021年12月24日）</t>
+  </si>
+  <si>
+    <t>【第47号公告】《公开发行证券的公司信息披露内容与格式准则第24号—公开发行公司债券申请文件（2021年修订）》</t>
+  </si>
+  <si>
+    <t>【行政许可事项】上市公司并购重组行政许可审核情况公示</t>
+  </si>
+  <si>
+    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
+  </si>
+  <si>
+    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
   </si>
   <si>
     <t>【行政许可事项】证券、基金经营机构行政许可申请受理及审核情况公示</t>
   </si>
   <si>
-    <t>【行政许可事项】创业板提交注册申请企业基本情况</t>
+    <t>第十八届发审委2021年第143次工作会议公告</t>
+  </si>
+  <si>
+    <t>优化互联互通机制，服务资本市场制度型双向开放</t>
+  </si>
+  <si>
+    <t>证监会有关负责人答记者问</t>
+  </si>
+  <si>
+    <t>关于指定红枣质检机构变更的公告</t>
+  </si>
+  <si>
+    <t>上海国际能源交易中心发布关于调整原油等品种交割手续费的通知</t>
   </si>
   <si>
     <t>关于调整铜等品种交割手续费的通知</t>
   </si>
   <si>
-    <t>第十八届发审委2021年第143次工作会议公告</t>
-  </si>
-  <si>
     <t>中国证监会行政许可申请中止审查通知书（无锡灵山文化旅游集团有限公司）</t>
   </si>
   <si>
-    <t>关于对珠海久银股权投资基金管理有限公司采取责令改正措施的决定〔2021〕158号</t>
-  </si>
-  <si>
-    <t>关于对合慧伟业商贸（北京）有限公司采取出具警示函行政监管措施的决定</t>
-  </si>
-  <si>
-    <t>厦门证监局证券期货经营机构行政许可事项审核过程公示表2021-12-24</t>
-  </si>
-  <si>
-    <t>会计师事务所货币资金审计监管专题</t>
-  </si>
-  <si>
-    <t>安徽局建言献策服务实体经济推动政府引导基金高质量发展</t>
-  </si>
-  <si>
-    <t>安徽局做实做细北交所上市公司入门教育</t>
-  </si>
-  <si>
-    <t>关于对内蒙古天首科技发展股份有限公司、邱士杰、姜琴采取出具警示函行政监管措施的决定</t>
-  </si>
-  <si>
-    <t>中金所减收2022年股指期货和国债期货交割手续费</t>
-  </si>
-  <si>
-    <t>关于变更指定苹果期货质检机构的公告</t>
-  </si>
-  <si>
-    <t>关于2022年元旦期间夜盘交易时间提示的通知</t>
-  </si>
-  <si>
-    <t>关于同意江苏省镔鑫钢铁集团有限公司变更螺纹钢产品标牌的公告</t>
-  </si>
-  <si>
-    <t>【行政许可事项】创业板提交再融资注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>上海国际能源交易中心发布关于调整原油等品种交割手续费的通知</t>
-  </si>
-  <si>
-    <t>【行政许可事项】科创板提交注册申请企业基本情况</t>
-  </si>
-  <si>
-    <t>【行政许可事项】上市公司并购重组行政许可审核情况公示</t>
-  </si>
-  <si>
-    <t>证监会就境外上市相关制度规则公开征求意见</t>
-  </si>
-  <si>
-    <t>中国证监会和香港证监会举行第十二次两地执法合作工作会议</t>
-  </si>
-  <si>
-    <t>优化互联互通机制，服务资本市场制度型双向开放</t>
-  </si>
-  <si>
-    <t>沪深港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
-  </si>
-  <si>
-    <t>关于就《中国证券登记结算有限责任公司境内外证券交易所互联互通存托凭证登记结算业务实施细则（公开征求意见稿）》征求意见的通知</t>
-  </si>
-  <si>
-    <t>关于发布《中国证券登记结算有限责任公司 上海证券交易所B转H业务实施细则》的通知</t>
-  </si>
-  <si>
-    <t>关于统一账户平台、身份信息核查系统暂停对外提供服务的通知</t>
-  </si>
-  <si>
-    <t>证监会有关负责人答记者问</t>
+    <t>公开发行公司债券的批复（2021.12.20-2021.12.24）</t>
   </si>
   <si>
     <t>关于就《国务院关于境内企业境外发行证券和上市的管理规定（草案征求意见稿）》公开征求意见的通知</t>
   </si>
   <si>
-    <t>关于就《境内企业境外发行证券和上市备案管理办法（征求意见稿）》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>【第47号公告】《公开发行证券的公司信息披露内容与格式准则第24号—公开发行公司债券申请文件（2021年修订）》</t>
-  </si>
-  <si>
-    <t>关于指定红枣质检机构变更的公告</t>
-  </si>
-  <si>
-    <t>深交所启动互联互通存托凭证业务并就深市配套业务规则公开征求意见</t>
-  </si>
-  <si>
-    <t>深沪港交易所及中国结算就ETF纳入互联互通标的整体方案达成共识</t>
-  </si>
-  <si>
-    <t>长江材料、善水科技在深交所上市</t>
-  </si>
-  <si>
-    <t>审核情况公示（截至2021年12月24日）</t>
-  </si>
-  <si>
-    <t>关于免收套保开仓、交割、仓单转让及标准仓单作为保证金手续费的通知</t>
-  </si>
-  <si>
-    <t>关于对国泰君安证券股份有限公司西宁胜利路证券营业部采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对中国银河证券股份有限公司长春人民大街证券营业部采取出具警示函措施的决定</t>
-  </si>
-  <si>
-    <t>关于对康欣采取出具警示函措施的决定</t>
+    <t>上交所新债券交易系统上线 平稳实现交易系统“股债分离”</t>
+  </si>
+  <si>
+    <t>陈华平任深圳证券交易所理事长</t>
   </si>
   <si>
     <t>凯旺科技、超达装备在深交所上市</t>
   </si>
   <si>
+    <t>中国证券业协会发布《证券公司履行社会责任专项评价办法》</t>
+  </si>
+  <si>
+    <t>中国证券业协会召开2021年第四季度证券基金行业首席经济学家例会</t>
+  </si>
+  <si>
     <t>上海市委常委、浦东新区区委书记朱芝松一行调研中金所</t>
   </si>
   <si>
-    <t>陈华平任深圳证券交易所理事长</t>
-  </si>
-  <si>
-    <t>中国证券业协会召开2021年第四季度证券基金行业首席经济学家例会</t>
-  </si>
-  <si>
-    <t>上交所新债券交易系统上线 平稳实现交易系统“股债分离”</t>
-  </si>
-  <si>
     <t>关于收取标准仓单作为保证金的手续费的通知</t>
   </si>
   <si>
-    <t>中国证券业协会发布《证券公司履行社会责任专项评价办法》</t>
-  </si>
-  <si>
     <t>第十八届发审委2021年第141次会议审核结果公告</t>
   </si>
   <si>
-    <t>关于核准第一创业证券股份有限公司变更主要股东的批复</t>
-  </si>
-  <si>
-    <t>关于调整FU2210合约最后交易日和交割期的通知</t>
+    <t>公司总部财汇证券风险预警系统服务等4个项目采购信息公示</t>
   </si>
   <si>
     <t>雅艺科技、亨迪药业、光庭信息在深交所上市</t>
   </si>
   <si>
-    <t>违规处理决定公告</t>
-  </si>
-  <si>
     <t>大商所对某客户采取限制开仓监管措施</t>
   </si>
   <si>
+    <t>上海国际能源交易中心发布关于调整期货SC2210等合约最后交易日和交割期、期权SC2210系列合约最后交易日的通知</t>
+  </si>
+  <si>
     <t>2020年度会计师事务所从事证券服务业务基本信息</t>
   </si>
   <si>
-    <t>关于同意赣州腾远钴业新材料股份有限公司首次公开发行股票注册的批复</t>
-  </si>
-  <si>
-    <t>上海国际能源交易中心发布关于调整期货SC2210等合约最后交易日和交割期、期权SC2210系列合约最后交易日的通知</t>
-  </si>
-  <si>
-    <t>关于公示第四届“郑商所杯”全国大学生金融模拟交易大赛拟获奖名单的公告</t>
-  </si>
-  <si>
-    <t>关于同意天铁热轧板有限公司“天铁”牌热轧卷板注册的公告</t>
-  </si>
-  <si>
     <t>深交所与中国政法大学等共同签署投资者教育合作备忘录</t>
   </si>
   <si>
+    <t>百诚医药在深交所上市</t>
+  </si>
+  <si>
     <t>关于2022年部分节假日休市期间证券资金清算交收安排的通知</t>
   </si>
   <si>
+    <t>大商所对某实控组客户采取限制开仓监管措施</t>
+  </si>
+  <si>
+    <t>第十八届发审委2021年第138次会议审核结果公告</t>
+  </si>
+  <si>
     <t>第十八届发审委2021年第139次会议审核结果公告</t>
   </si>
   <si>
-    <t>大商所对某实控组客户采取限制开仓监管措施</t>
-  </si>
-  <si>
     <t>证券行业文化建设委员会2021年全体会议召开</t>
   </si>
   <si>
-    <t>第十八届发审委2021年第138次会议审核结果公告</t>
-  </si>
-  <si>
     <t>中国证券业协会举办首期注册制下投行执业能力提升培训班</t>
   </si>
   <si>
-    <t>百诚医药在深交所上市</t>
-  </si>
-  <si>
     <t>证券行业投资者教育走入中国政法大学</t>
   </si>
   <si>
+    <t>第十八届发审委2021年第141次工作会议公告</t>
+  </si>
+  <si>
     <t>关于就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见的通知</t>
   </si>
   <si>
+    <t>中国证监会行政处罚决定书（胡侃）</t>
+  </si>
+  <si>
     <t>大商所2021年会员大会成功召开</t>
   </si>
   <si>
     <t>中国证监会相关部门负责人就美国监管机构有关动向答记者问</t>
   </si>
   <si>
+    <t>风光股份在深交所上市</t>
+  </si>
+  <si>
+    <t>证监会就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见</t>
+  </si>
+  <si>
+    <t>中国证监会关于就修改《内地与香港股票市场交易互联互通机制若干规定》公开征求意见的通知</t>
+  </si>
+  <si>
     <t>证监会举行党的十九届六中全会精神宣讲会</t>
   </si>
   <si>
-    <t>中国证监会关于就修改《内地与香港股票市场交易互联互通机制若干规定》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>证监会就修订《关于上海证券交易所与伦敦证券交易所互联互通存托凭证业务的监管规定（试行）》公开征求意见</t>
-  </si>
-  <si>
-    <t>风光股份在深交所上市</t>
-  </si>
-  <si>
-    <t>第十八届发审委2021年第141次工作会议公告</t>
+    <t>明月镜片在深交所上市</t>
+  </si>
+  <si>
+    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
+  </si>
+  <si>
+    <t>大商所党委认真学习贯彻中央经济工作会议精神</t>
+  </si>
+  <si>
+    <t>中国证券业协会发布《北京证券交易所股票向不特定合格投资者公开发行与承销特别条款》等两项自律规则</t>
+  </si>
+  <si>
+    <t>中国证监会行政处罚决定书（陈海昌、蔡蔚）</t>
   </si>
   <si>
     <t>第十八届发审委2021年第137次会议审核结果公告</t>
   </si>
   <si>
-    <t>中国证券业协会发布《北京证券交易所股票向不特定合格投资者公开发行与承销特别条款》等两项自律规则</t>
-  </si>
-  <si>
-    <t>明月镜片在深交所上市</t>
-  </si>
-  <si>
-    <t>大商所党委认真学习贯彻中央经济工作会议精神</t>
-  </si>
-  <si>
-    <t>深交所举办会员投资者教育与保护工作培训交流会</t>
+    <t>中国证监会行政处罚决定书（海融天、周晓）</t>
   </si>
   <si>
     <t>深交所党委认真学习贯彻中央经济工作会议精神</t>
   </si>
   <si>
+    <t>大商所召开理事会结算委员会2021年度工作会议</t>
+  </si>
+  <si>
     <t>华研精机、迪阿股份在深交所上市</t>
   </si>
   <si>
     <t>坚持稳中求进，助力实体经济和资本市场高质量发展——中国金融期货交易所党委传达学习贯彻中央经济工作会议精神</t>
   </si>
   <si>
-    <t>大商所召开理事会结算委员会2021年度工作会议</t>
+    <t>关于举办2021年度公募基金新任基金经理培训的通知</t>
   </si>
   <si>
     <t>关于征集2022年度基金从业人员后续培训建议的通知</t>
   </si>
   <si>
-    <t>关于举办2021年度公募基金新任基金经理培训的通知</t>
-  </si>
-  <si>
     <t>坚持稳中求进，全心全意服务高质量发展——上海证券交易所党委学习贯彻中央经济工作会议精神</t>
   </si>
   <si>
+    <t>深交所就修订股票上市规则公开征求意见</t>
+  </si>
+  <si>
+    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
+  </si>
+  <si>
+    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
+  </si>
+  <si>
+    <t>通灵股份在深交所上市</t>
+  </si>
+  <si>
+    <t>中金所召开董事会风险委员会2021年度会议</t>
+  </si>
+  <si>
     <t>【第46号公告】《关于赵瀛等12名同志不再担任第十八届发审委委员的公告》</t>
   </si>
   <si>
-    <t>上海证券交易所与中证商品指数有限责任公司签署战略合作框架协议</t>
-  </si>
-  <si>
-    <t>上交所就上市公司自律监管规则体系整合暨修订《上海证券交易所股票上市规则》征求意见</t>
-  </si>
-  <si>
     <t>[上海]关于证券质押登记业务全面启用电子凭证的通知</t>
   </si>
   <si>
     <t>【第45号公告】《关于聘任中国证券监督管理委员会第十八届发行审核委员会增补委员的公告》</t>
   </si>
   <si>
-    <t>通灵股份在深交所上市</t>
-  </si>
-  <si>
-    <t>深交所就修订股票上市规则公开征求意见</t>
-  </si>
-  <si>
-    <t>中金所召开董事会风险委员会2021年度会议</t>
+    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
   </si>
   <si>
     <t>家联科技在深交所上市</t>
   </si>
   <si>
-    <t>发挥交易所培育服务合力 助力西部地区资本市场高质量发展</t>
-  </si>
-  <si>
-    <t>泽宇智能在深交所上市</t>
+    <t>公司总部办公及工具类软件采购项目等4个项目采购信息公示</t>
   </si>
   <si>
     <t>大连商品交易所党委书记、理事长冉华： 做好提升大宗商品定价影响力大文章 高质量服务实体经济发展</t>
   </si>
   <si>
-    <t>公司总部办公及工具类软件采购项目等4个项目采购信息公示</t>
-  </si>
-  <si>
-    <t>粤万年青、达嘉维康、迈赫股份在深交所上市</t>
-  </si>
-  <si>
     <t>大商所第四届理事会第十七次会议圆满召开</t>
   </si>
   <si>
+    <t>中国证监会行政处罚决定书（亚太所、吴平权、周铁华）</t>
+  </si>
+  <si>
     <t>中国证监会行政处罚决定书（毛崴、姚石）</t>
   </si>
   <si>
+    <t>中国证监会行政处罚决定书（潘日忠）</t>
+  </si>
+  <si>
+    <t>大商所总经理席志勇：持续完善高标准、高质量市场体系 更好服务经济高质量发展</t>
+  </si>
+  <si>
     <t>[北京]北京分公司“桌面及办公基础环境运维服务”等五个采购项目信息公示</t>
   </si>
   <si>
     <t>关于就《中国证券投资基金业协会团体标准管理办法（征求意见稿）》征求意见的通知</t>
   </si>
   <si>
-    <t>大商所总经理席志勇：持续完善高标准、高质量市场体系 更好服务经济高质量发展</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（潘日忠）</t>
-  </si>
-  <si>
     <t>证监会新闻发言人答记者问</t>
   </si>
   <si>
@@ -436,51 +463,42 @@
     <t>大商所召开理事会农业品委员会2021年度工作会议</t>
   </si>
   <si>
+    <t>场外业务开展情况报告（2021年第11期，总第74期）</t>
+  </si>
+  <si>
     <t>证监会有关部门负责人就相关媒体报道答记者问</t>
   </si>
   <si>
-    <t>场外业务开展情况报告（2021年第11期，总第74期）</t>
+    <t>公司总部完善投资者保护宣传电子屏幕系统采购项目等4个项目采购信息公示</t>
   </si>
   <si>
     <t>大商所组织召开理事会风险管理委员会2021年度工作会议</t>
   </si>
   <si>
-    <t>公司总部完善投资者保护宣传电子屏幕系统采购项目等4个项目采购信息公示</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（王书庆）</t>
-  </si>
-  <si>
     <t>大商所召开理事会信息技术应用委员会2021年度工作会议</t>
   </si>
   <si>
-    <t>中国证监会行政处罚决定书（罗正华）</t>
-  </si>
-  <si>
-    <t>中国证监会行政处罚决定书（刘宏宇）</t>
+    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
   </si>
   <si>
     <t>关于就《证券期货行政执法当事人承诺制度实施规定（征求意见稿）》公开征求意见的通知</t>
   </si>
   <si>
-    <t>为完善资本市场基础制度建设提供法治保障——司法部、中国证监会负责人就《证券期货行政执法当事人承诺制度实施办法》有关问题答记者问</t>
-  </si>
-  <si>
-    <t>关于就《证券期货行政执法当事人承诺金管理办法（征求意见稿）》公开征求意见的通知</t>
+    <t>中国结算关于股票期权直接扣款功能上线的通知</t>
+  </si>
+  <si>
+    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
   </si>
   <si>
     <t>关于就上市公司监管法规体系整合涉及相关规则公开征求意见的通知</t>
   </si>
   <si>
-    <t>中国结算关于股票期权直接扣款功能上线的通知</t>
-  </si>
-  <si>
     <t>监管规则适用指引——机构类第1号（2021年11月修订）</t>
   </si>
   <si>
-    <t>上交所与柬埔寨证券交易所签署合作谅解备忘录</t>
-  </si>
-  <si>
     <t>大商所深入开展“我为群众办实事”实践活动</t>
   </si>
   <si>
@@ -490,30 +508,27 @@
     <t>汲取历史智慧 激发奋进力量——证券业协会党委学习贯彻党的十九届六中全会精神</t>
   </si>
   <si>
-    <t>中国证监会行政处罚决定书（耿志民）</t>
+    <t>中金所修订违规违约处理办法</t>
   </si>
   <si>
     <t>【第44号公告】《公开征集上市公司股东权利管理暂行规定》</t>
   </si>
   <si>
+    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
+  </si>
+  <si>
     <t>祝贺证券行业在“全国党史知识竞赛” 活动中获奖</t>
   </si>
   <si>
-    <t>关于就修订《证券发行上市保荐业务工作底稿指引》公开征求意见的通知</t>
-  </si>
-  <si>
-    <t>中金所修订违规违约处理办法</t>
-  </si>
-  <si>
     <t>上交所就发布营业收入扣除指南答记者问</t>
   </si>
   <si>
+    <t>公司总部信息系统建设采购项目信息公示（2021年10月）</t>
+  </si>
+  <si>
     <t>关于举办金融科技与数字化转型培训的通知</t>
   </si>
   <si>
-    <t>公司总部信息系统建设采购项目信息公示（2021年10月）</t>
-  </si>
-  <si>
     <t>2021年第三季度专业委员会工作动态</t>
   </si>
   <si>
@@ -523,15 +538,15 @@
     <t>【第42号公告】关于修改《中国证券监督管理委员会上市公司并购重组审核委员会工作规程》的决定</t>
   </si>
   <si>
+    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
+  </si>
+  <si>
+    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
+  </si>
+  <si>
     <t>【第43号公告】关于调整上市公司并购重组审核委员会委员的公告</t>
   </si>
   <si>
-    <t>证监会有关部门负责人就康美药业特别代表人诉讼案作出判决答记者问</t>
-  </si>
-  <si>
-    <t>以更加坚定的信心迈进新征程、建功新时代——上交所党委学习贯彻党的十九届六中全会精神</t>
-  </si>
-  <si>
     <t>场外业务开展情况报告（2021年第10期，总第73期）</t>
   </si>
   <si>
@@ -550,36 +565,27 @@
     <t>关于向托管机构提供私募基金管理人自律相关信息查询服务的通知</t>
   </si>
   <si>
-    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所股票向不特定合格投资者公开发行与承销业务实施细则》的公告</t>
-  </si>
-  <si>
-    <t>北京证券交易所 中国证券登记结算有限责任公司关于发布《北京证券交易所上市公司股份协议转让细则》的公告</t>
-  </si>
-  <si>
-    <t>中国证券登记结算有限责任公司2022年度招聘启事</t>
-  </si>
-  <si>
     <t>稳中提质态势不改，沪市主板公司完成2021年三季度报告披露</t>
   </si>
   <si>
     <t>资本市场高质量发展集群初步显现——科创板公司2021年前三季度经营业绩概况</t>
   </si>
   <si>
+    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
+  </si>
+  <si>
+    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
+  </si>
+  <si>
+    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
+  </si>
+  <si>
+    <t>【第192号令】《证券交易所管理办法》</t>
+  </si>
+  <si>
     <t>【第191号令】《关于修改〈非上市公众公司信息披露管理办法〉的决定》</t>
   </si>
   <si>
-    <t>【第190号令】《关于修改〈非上市公众公司监督管理办法〉的决定》</t>
-  </si>
-  <si>
-    <t>【第187号令】《北京证券交易所向不特定合格投资者公开发行股票注册管理办法（试行）》</t>
-  </si>
-  <si>
-    <t>【第192号令】《证券交易所管理办法》</t>
-  </si>
-  <si>
-    <t>【第188号令】《北京证券交易所上市公司证券发行注册管理办法（试行）》</t>
-  </si>
-  <si>
     <t>【第189号令】《北京证券交易所上市公司持续监管办法（试行）》</t>
   </si>
   <si>
@@ -607,9 +613,6 @@
     <t>境内外专家相聚金融街论坛年会   探讨股票发行注册制改革</t>
   </si>
   <si>
-    <t>中国证券业协会发布《证券行业助力碳达峰碳中和目标行动报告》与《2020年度证券公司履行社会责任情况报告》</t>
-  </si>
-  <si>
     <t>中国证监会市场禁入决定书（刘绍喜等5名责任人员）</t>
   </si>
   <si>
@@ -619,12 +622,12 @@
     <t>中金所开展“2021年世界投资者周”系列活动</t>
   </si>
   <si>
+    <t>关于在私募产品运行表中增加债券投资相关填报事项的通知</t>
+  </si>
+  <si>
     <t>关于提供私募基金信息披露备份系统定向披露功能便利措施的通知</t>
   </si>
   <si>
-    <t>关于在私募产品运行表中增加债券投资相关填报事项的通知</t>
-  </si>
-  <si>
     <t>《证券期货违法行为行政处罚办法》公开征求意见的反馈情况</t>
   </si>
   <si>
@@ -664,24 +667,24 @@
     <t>首发企业信息披露质量抽查抽签情况（2021年7月4日）</t>
   </si>
   <si>
+    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会行政复议决定书（张伟志）</t>
+  </si>
+  <si>
     <t>中国证券监督管理委员会行政复议决定书（杨金柱）</t>
   </si>
   <si>
-    <t>中国证券监督管理委员会行政复议决定书（王荷花）</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（张伟志）</t>
+    <t>中国证券监督管理委员会行政复议决定书（门赫）</t>
+  </si>
+  <si>
+    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
   </si>
   <si>
     <t>《关于完善全国中小企业股份转让系统终止挂牌制度的指导意见》公开征求意见的反馈情况</t>
   </si>
   <si>
-    <t>《证券市场禁入规定》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>中国证券监督管理委员会行政复议决定书（门赫）</t>
-  </si>
-  <si>
     <t>关于发行审核业务问答部分条款调整事项的通知</t>
   </si>
   <si>
@@ -700,15 +703,15 @@
     <t>《关于修改&lt;证券公司股权管理规定&gt;的决定》公开征求意见的反馈情况</t>
   </si>
   <si>
+    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
+  </si>
+  <si>
+    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
+  </si>
+  <si>
     <t>《上市公司信息披露管理办法》公开征求意见的反馈情况</t>
   </si>
   <si>
-    <t>《行政处罚委员会组织规则》公开征求意见的反馈情况</t>
-  </si>
-  <si>
-    <t>《公司债券发行与交易管理办法》公开征求意见的反馈情况</t>
-  </si>
-  <si>
     <t>《证券市场资信评级业务管理办法》公开征求意见的反馈情况</t>
   </si>
   <si>
@@ -733,6 +736,12 @@
     <t>发行监管问答——关于申请首发企业执行新收入准则相关事项的问答</t>
   </si>
   <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
     <t>2021-12-26</t>
   </si>
   <si>
@@ -838,9 +847,6 @@
     <t>2021-11-03</t>
   </si>
   <si>
-    <t>2021-11-02</t>
-  </si>
-  <si>
     <t>2021-11-01</t>
   </si>
   <si>
@@ -865,9 +871,6 @@
     <t>2021-10-22</t>
   </si>
   <si>
-    <t>2021-10-21</t>
-  </si>
-  <si>
     <t>2021-10-18</t>
   </si>
   <si>
@@ -958,348 +961,375 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>http://www.shfe.com.cn/news/notice/911341120.html</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341118.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1666378/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/beijing/c105547/c1666309/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/shenzhen/c104320/c1666270/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/neimenggu/c103712/c1666217/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211228_590408.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211228_590426.html</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081771101822.htm</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/beijing/c103545/c1666304/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/hainan/c104739/c1666423/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/sichuan/c104875/c1666451/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/henan/c104267/c1666497/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105906/c1666578/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1666386/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341119.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/zhejiang/c103952/c1666384/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/shfgz/202112/7ee3a890cc094771b2e14ed43ec2ac49.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/szfgsgg/202112/aa88793c8e274fb09d5624cd146ff478.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202112/350ccd7f080946dd99324e42a83cb372.shtml</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081677688775.htm</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211227_148110.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101830/c1663721/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101830/c1663761/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101830/c1663766/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101830/c1663761/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101830/c1663721/content.shtml</t>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/db5df073fdaf4a9391958d9710733729.shtml</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417739843.htm</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn//www.chinaclear.cn/zdjs/editor_file/20211224161708605.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341114.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590387.html</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417917376.htm</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590375.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211224/26694.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8a7be8427ce74cb882fba7c25514ff2d.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1662251/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662094/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662226/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590382.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667440.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c106251/c1569384/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101954/c1661985/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105935/c1004167/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c106250/c1029662/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105914/c1514593/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1661963/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667439.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1662240/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417519581.htm</t>
+  </si>
+  <si>
+    <t>http://www.shfe.com.cn/news/notice/911341099.html</t>
   </si>
   <si>
     <t>http://www.shfe.com.cn/news/notice/911341098.html</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1661963/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c106307/c1662076/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/guangdong/c104560/c1661958/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/neimenggu/c103712/c1661975/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/xiamen/c104096/c1661954/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/jiangsu/c100619/c1661823/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/anhui/c100695/c1661782/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/anhui/c100695/c1661781/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/neimenggu/c103712/c1661979/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211224/26694.html</t>
-  </si>
-  <si>
-    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417739843.htm</t>
-  </si>
-  <si>
-    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417917376.htm</t>
-  </si>
-  <si>
-    <t>http://www.shfe.com.cn/news/notice/911341114.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105919/c1514590/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.shfe.com.cn/news/notice/911341099.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105903/c1489522/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105935/c1004167/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1662226/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1662094/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667439.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211224_5667440.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn//www.chinaclear.cn/zdjs/editor_file/20211224161708605.pdf</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/db5df073fdaf4a9391958d9710733729.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8a7be8427ce74cb882fba7c25514ff2d.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1662240/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c106307/c1665383/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101981/c1662244/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1662251/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101954/c1661985/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081417519581.htm</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590387.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590382.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211224_590375.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c106251/c1569384/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081336998736.htm</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/qinghai/c104510/c1661518/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/jilin/c103800/c1660351/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/jilin/c103800/c1660341/content.shtml</t>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211223_5666377.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211223_590372.html</t>
   </si>
   <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211223_590365.html</t>
   </si>
   <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148089.html</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148091.html</t>
+  </si>
+  <si>
     <t>http://www.cffex.com.cn//jysdt/20211223/26673.html</t>
   </si>
   <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211223_590372.html</t>
-  </si>
-  <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148091.html</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211223_5666377.shtml</t>
-  </si>
-  <si>
     <t>http://www.shfe.com.cn/news/notice/911341086.html</t>
   </si>
   <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211223_148089.html</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c105899/c1660392/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101846/c1662075/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.shfe.com.cn/news/notice/911341080.html</t>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/8d6da55f3a9c4b50b67e316571fda9e8.shtml</t>
   </si>
   <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211222_590337.html</t>
   </si>
   <si>
-    <t>http://www.shfe.com.cn/news/notice/911341077.html</t>
-  </si>
-  <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300571/index.html</t>
   </si>
   <si>
+    <t>http://www.shfe.com.cn/news/notice/911341081.html</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c100040/c1659749/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105917/c1659778/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.shfe.com.cn/news/notice/911341081.html</t>
-  </si>
-  <si>
-    <t>http://www.czce.com.cn/cn/gyjys/jysdt/ggytz/webinfo/2021/12/1640081169043586.htm</t>
-  </si>
-  <si>
-    <t>http://www.shfe.com.cn/news/notice/911341073.html</t>
-  </si>
-  <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211221_590333.html</t>
   </si>
   <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211220_590307.html</t>
+  </si>
+  <si>
     <t>http://www.chinaclear.cn/zdjs/gszb/202112/40a8135b1ef44cdcb69718542abc568f.shtml</t>
   </si>
   <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300411/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105899/c1657567/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c105899/c1657675/content.shtml</t>
   </si>
   <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300411/index.html</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211220_148073.html</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105899/c1657567/content.shtml</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211220_148074.html</t>
   </si>
   <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211220_590307.html</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211219_148066.html</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c105898/c1656567/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101981/c1656997/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1664379/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300347/index.html</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1657004/content.shtml</t>
   </si>
   <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590289.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590300.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1656767/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1656589/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1656767/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590300.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211217_590289.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105898/c1656567/content.shtml</t>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590258.html</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590286.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300200/index.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fc83afb344c445f1bc9de7792327cff6.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211216_148053.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1664401/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c105899/c1653905/content.shtml</t>
   </si>
   <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211216_148053.html</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fc83afb344c445f1bc9de7792327cff6.shtml</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590258.html</t>
-  </si>
-  <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300200/index.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211216_590286.html</t>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1664391/content.shtml</t>
   </si>
   <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211215_590253.html</t>
   </si>
   <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300271/index.html</t>
+  </si>
+  <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211215_590238.html</t>
   </si>
   <si>
     <t>http://www.cffex.com.cn//jysdt/20211215/26555.html</t>
   </si>
   <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6300271/index.html</t>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13144.html</t>
   </si>
   <si>
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13148.html</t>
   </si>
   <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211214_13144.html</t>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211213_5657048.shtml</t>
   </si>
   <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6299559/index.html</t>
   </si>
   <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211213_5657048.shtml</t>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590195.html</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655965.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655966.shtml</t>
+  </si>
+  <si>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590186.html</t>
+  </si>
+  <si>
+    <t>http://www.cffex.com.cn//jysdt/20211210/26493.html</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101950/c1615684/content.shtml</t>
   </si>
   <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655965.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211210_5655966.shtml</t>
-  </si>
-  <si>
     <t>http://www.chinaclear.cn/zdjs/shfgz/202112/dcae5436f91048a0926eef4873d3e422.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101950/c1615680/content.shtml</t>
   </si>
   <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590186.html</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211210_590195.html</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211210/26493.html</t>
+    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590185.html</t>
   </si>
   <si>
     <t>http://www.szse.cn/aboutus/trends/news/t20211209_590182.html</t>
   </si>
   <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211209_5654289.shtml</t>
+  </si>
+  <si>
     <t>http://www.chinaclear.cn/zdjs/gszb/202112/8d9450ed61324f969d9e38fbd59d86c9.shtml</t>
   </si>
   <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211209_590185.html</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211209_5654289.shtml</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211208_590160.html</t>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fff6a7ae3b874c5b9f5a60a378af9715.shtml</t>
   </si>
   <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298912/index.html</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/fff6a7ae3b874c5b9f5a60a378af9715.shtml</t>
-  </si>
-  <si>
-    <t>http://www.szse.cn/aboutus/trends/news/t20211207_590134.html</t>
-  </si>
-  <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298840/index.html</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101927/c1664256/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101928/c1659631/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298791/index.html</t>
+  </si>
+  <si>
     <t>http://www.chinaclear.cn/zdjs/bjsjjsfgs/202112/5eb80637e37f44468b24a8ebba5d2a10.shtml</t>
   </si>
   <si>
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202112/t20211206_13127.html</t>
   </si>
   <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298791/index.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1608698/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1605830/content.shtml</t>
   </si>
   <si>
@@ -1321,132 +1351,120 @@
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298524/index.html</t>
   </si>
   <si>
+    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211201_147976.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/872254713e464a36a1575728c4ef4301.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298395/index.html</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c100028/c1605514/content.shtml</t>
   </si>
   <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202112/t20211201_147976.html</t>
-  </si>
-  <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298395/index.html</t>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202112/b755b353c1cb4164bd07f61396bd3790.shtml</t>
   </si>
   <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298370/index.html</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/872254713e464a36a1575728c4ef4301.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202112/b755b353c1cb4164bd07f61396bd3790.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1659543/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298181/index.html</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1659450/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1659521/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c101981/c1600717/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298173/index.html</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1598150/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101981/c1603638/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1598150/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6298173/index.html</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101981/c1600717/content.shtml</t>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/dfff29210c144e6c8ca3c6fb8ad90ead.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211126_5644493.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c101864/c1560018/content.shtml</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/dfff29210c144e6c8ca3c6fb8ad90ead.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c101838/c1570899/content.shtml</t>
   </si>
   <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211126_5644493.shtml</t>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297884/index.html</t>
+  </si>
+  <si>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297877/index.html</t>
   </si>
   <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297831/index.html</t>
   </si>
   <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297877/index.html</t>
+    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297873/index.html</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1ace838456984feaa46c758110d651b8.shtml</t>
   </si>
   <si>
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211124_13089.html</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1ace838456984feaa46c758110d651b8.shtml</t>
-  </si>
-  <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297873/index.html</t>
-  </si>
-  <si>
-    <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297884/index.html</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211122_147900.html</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101928/c1583540/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.dce.com.cn/dalianshangpin/xwzx93/jysxw/6297708/index.html</t>
   </si>
   <si>
+    <t>http://www.cffex.com.cn//jysdt/20211119/26195.html</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101954/c1605915/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101802/c1559800/content.shtml</t>
+  </si>
+  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211119_147895.html</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101802/c1559800/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.cffex.com.cn//jysdt/20211119/26195.html</t>
-  </si>
-  <si>
     <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211119_5639694.shtml</t>
   </si>
   <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/9e31522081f44d30a8bc7593bd7a22cf.shtml</t>
+  </si>
+  <si>
+    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1352a198a7b44d62b1042629ca8e04ae.shtml</t>
+  </si>
+  <si>
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211118_13061.html</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/9e31522081f44d30a8bc7593bd7a22cf.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/1352a198a7b44d62b1042629ca8e04ae.shtml</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211116_147852.html</t>
   </si>
   <si>
     <t>http://www.cffex.com.cn//jysdt/20211115/26373.html</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100028/c1556048/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211112_5633548.shtml</t>
+  </si>
+  <si>
     <t>http://www.chinaclear.cn/zdjs/gszb/202111/691ad232273b42928fc3baeda81b2d7e.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101950/c1560178/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c101950/c1560176/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100028/c1556048/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211112_5633548.shtml</t>
-  </si>
-  <si>
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202111/t20211110_147826.html</t>
   </si>
   <si>
@@ -1456,9 +1474,6 @@
     <t>http://www.csrc.gov.cn/csrc/c100028/c1556052/content.shtml</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/f3bd0d5a53cf484182292184fbb2cb63.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c101927/c1560133/content.shtml</t>
   </si>
   <si>
@@ -1468,36 +1483,27 @@
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202111/t20211103_13039.html</t>
   </si>
   <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/219be73e0f2a4b0a9bf67d154b8ec700.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/4a76814ff0834839b65dfff8709d2618.shtml</t>
-  </si>
-  <si>
-    <t>http://www.chinaclear.cn/zdjs/gszb/202111/7ff7a80968df49a49b6c478de725761b.shtml</t>
-  </si>
-  <si>
     <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626062.shtml</t>
   </si>
   <si>
     <t>http://www.sse.com.cn/aboutus/mediacenter/hotandd/c/c_20211101_5626061.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c101834/c1496641/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c101831/c1496639/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c101831/c1496640/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496652/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101834/c1496641/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c101864/c1496651/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c101864/c1496650/content.shtml</t>
   </si>
   <si>
@@ -1525,9 +1531,6 @@
     <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211022_147719.html</t>
   </si>
   <si>
-    <t>https://www.sac.net.cn/ljxh/xhgzdt/202110/t20211021_147687.html</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c101927/c1560137/content.shtml</t>
   </si>
   <si>
@@ -1537,12 +1540,12 @@
     <t>http://www.cffex.com.cn//jysdt/20210930/25749.html</t>
   </si>
   <si>
+    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12985.html</t>
+  </si>
+  <si>
     <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12983.html</t>
   </si>
   <si>
-    <t>https://www.amac.org.cn/aboutassociation/gyxh_xhdt/xhdt_xhtz/202109/t20210924_12985.html</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100114/c1494322/content.shtml</t>
   </si>
   <si>
@@ -1582,24 +1585,24 @@
     <t>http://www.csrc.gov.cn/csrc/c101819/c1499944/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c5a6dfd70b31c4683a8a0cd9efd4f3b34/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c105938/c1496825/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c1496824/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c5a6dfd70b31c4683a8a0cd9efd4f3b34/content.shtml</t>
+    <t>http://www.csrc.gov.cn/csrc/c105938/c558d1e43ee6041a89967165b08ab55f4/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/cd71f267b95b648f2b81adc61fa70c0b9/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100114/cf8c0ae13c99448dd9cdb43484221676c/content.shtml</t>
   </si>
   <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/cd71f267b95b648f2b81adc61fa70c0b9/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c105938/c558d1e43ee6041a89967165b08ab55f4/content.shtml</t>
-  </si>
-  <si>
     <t>http://www.csrc.gov.cn/csrc/c100107/c1447185/content.shtml</t>
   </si>
   <si>
@@ -1618,13 +1621,13 @@
     <t>http://www.csrc.gov.cn/csrc/c100114/c31b1a65578e74fc4a88387b0830e67c0/content.shtml</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/c13571e73081345378d2006cd4c27d333/content.shtml</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/csrc/c100114/cdb260c649846458da6c283feabd536cb/content.shtml</t>
+  </si>
+  <si>
     <t>http://www.csrc.gov.cn/csrc/c100114/c69ec42b64d3547b38e7379dfad140631/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/cdb260c649846458da6c283feabd536cb/content.shtml</t>
-  </si>
-  <si>
-    <t>http://www.csrc.gov.cn/csrc/c100114/c13571e73081345378d2006cd4c27d333/content.shtml</t>
   </si>
   <si>
     <t>http://www.csrc.gov.cn/csrc/c100114/c7a3434d7014a46ca9f07ceb5e92d7fe3/content.shtml</t>
@@ -2047,10 +2050,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2061,24 +2064,24 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2092,7 +2095,7 @@
         <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2106,12 +2109,12 @@
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -2120,12 +2123,12 @@
         <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2134,12 +2137,12 @@
         <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2148,12 +2151,12 @@
         <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -2162,7 +2165,7 @@
         <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2176,12 +2179,12 @@
         <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -2190,12 +2193,12 @@
         <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -2204,12 +2207,12 @@
         <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -2218,7 +2221,7 @@
         <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2232,12 +2235,12 @@
         <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -2246,12 +2249,12 @@
         <v>240</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -2260,12 +2263,12 @@
         <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -2274,12 +2277,12 @@
         <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -2288,12 +2291,12 @@
         <v>240</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -2302,385 +2305,385 @@
         <v>240</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2691,66 +2694,66 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2761,108 +2764,108 @@
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2873,43 +2876,43 @@
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
@@ -2918,119 +2921,119 @@
         <v>244</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3041,136 +3044,136 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3178,377 +3181,377 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
         <v>250</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
         <v>250</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
         <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
         <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>251</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>251</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3556,74 +3559,74 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
         <v>254</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
         <v>254</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
         <v>255</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
         <v>255</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
         <v>131</v>
@@ -3632,26 +3635,26 @@
         <v>255</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
         <v>255</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -3660,54 +3663,54 @@
         <v>256</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
         <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>137</v>
@@ -3716,12 +3719,12 @@
         <v>258</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
@@ -3730,7 +3733,7 @@
         <v>258</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3744,371 +3747,371 @@
         <v>258</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
         <v>259</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C138" t="s">
         <v>262</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4116,307 +4119,307 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="C150" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
         <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C158" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
         <v>268</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="C161" t="s">
         <v>269</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
         <v>269</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C163" t="s">
         <v>269</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C169" t="s">
         <v>272</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
         <v>272</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C171" t="s">
         <v>273</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4424,97 +4427,97 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
         <v>274</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4522,13 +4525,13 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4536,13 +4539,13 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C180" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4550,13 +4553,13 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C181" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4564,13 +4567,13 @@
         <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C182" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4578,153 +4581,153 @@
         <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C183" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C184" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C186" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C187" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4732,27 +4735,27 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4760,13 +4763,13 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4774,27 +4777,27 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C197" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C198" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4802,13 +4805,13 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4816,125 +4819,125 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C200" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C201" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C203" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C206" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4942,13 +4945,13 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C209" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4956,97 +4959,97 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C210" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C212" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C214" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C215" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5054,13 +5057,13 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C217" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5068,13 +5071,13 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5082,13 +5085,13 @@
         <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5096,13 +5099,13 @@
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C220" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5110,83 +5113,83 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C221" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C222" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C226" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5194,13 +5197,13 @@
         <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C227" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5208,13 +5211,13 @@
         <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5222,13 +5225,13 @@
         <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C229" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5236,13 +5239,13 @@
         <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C230" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5250,13 +5253,13 @@
         <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C231" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5264,13 +5267,13 @@
         <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C232" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5278,13 +5281,13 @@
         <v>20</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
